--- a/Куделин/Солнечная энергетика/Solar Europe France.xlsx
+++ b/Куделин/Солнечная энергетика/Solar Europe France.xlsx
@@ -1159,22 +1159,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>406.96686604352226</c:v>
+                  <c:v>0.21475677263927129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>498.37844824143787</c:v>
+                  <c:v>0.2784786555626394</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.06232915385954</c:v>
+                  <c:v>0.35986459638167695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>726.24341388215112</c:v>
+                  <c:v>0.46352162698656246</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>859.37152784400246</c:v>
+                  <c:v>0.59588323158905643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1006.706707244837</c:v>
+                  <c:v>0.76408642581756525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1246,22 +1246,22 @@
                 <c:formatCode>0.0_ ;\-0.0\ </c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>31.463126131404799</c:v>
+                  <c:v>8.9123765316035151</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.989745997627111</c:v>
+                  <c:v>9.9472811183841205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.192755677103797</c:v>
+                  <c:v>11.42002327007603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.081708300211758</c:v>
+                  <c:v>12.915051271115212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.357707006357757</c:v>
+                  <c:v>14.336661142932511</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.908796659192944</c:v>
+                  <c:v>16.831781800877621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1282,11 +1282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799969760"/>
-        <c:axId val="1799974112"/>
+        <c:axId val="-85348560"/>
+        <c:axId val="-85351824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799969760"/>
+        <c:axId val="-85348560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1329,7 +1329,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799974112"/>
+        <c:crossAx val="-85351824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1337,7 +1337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799974112"/>
+        <c:axId val="-85351824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1389,7 +1389,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799969760"/>
+        <c:crossAx val="-85348560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1754,19 +1754,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1251.6119825365665</c:v>
+                  <c:v>6.0220685145407247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1412.0880394378496</c:v>
+                  <c:v>7.2388856333770102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1532.6718270532706</c:v>
+                  <c:v>8.5511336066406827</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1617.3833825636102</c:v>
+                  <c:v>10.581441679832166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1793.9836125091176</c:v>
+                  <c:v>12.502551192632492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,19 +1827,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1260.4157024418018</c:v>
+                  <c:v>6.0644128928189431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1433.805823168778</c:v>
+                  <c:v>7.3501878121553315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1573.2237159015999</c:v>
+                  <c:v>8.7773283790691181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1682.294245634258</c:v>
+                  <c:v>11.006028062608468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1894.7486760660775</c:v>
+                  <c:v>13.204684828853942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1860,11 +1860,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799950720"/>
-        <c:axId val="1799959424"/>
+        <c:axId val="-85362160"/>
+        <c:axId val="-85361616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799950720"/>
+        <c:axId val="-85362160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,7 +1907,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799959424"/>
+        <c:crossAx val="-85361616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1915,7 +1915,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799959424"/>
+        <c:axId val="-85361616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -1967,7 +1967,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799950720"/>
+        <c:crossAx val="-85362160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,19 +2335,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1282.6600947411698</c:v>
+                  <c:v>6.1714045931720367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1480.5689228869758</c:v>
+                  <c:v>7.5898455483934484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1653.0978033192305</c:v>
+                  <c:v>9.2228588226431256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1803.0294918681668</c:v>
+                  <c:v>11.795765543317493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2075.1461616730171</c:v>
+                  <c:v>14.461699294614764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,19 +2408,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1283.0579643794983</c:v>
+                  <c:v>6.1733182776885984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1481.3999598085657</c:v>
+                  <c:v>7.594104556640521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1654.5262330226656</c:v>
+                  <c:v>9.2308264744806756</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1805.2140928332678</c:v>
+                  <c:v>11.810055167237183</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2078.4582324132375</c:v>
+                  <c:v>14.484777891403811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2441,11 +2441,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799958336"/>
-        <c:axId val="1799963232"/>
+        <c:axId val="-85344208"/>
+        <c:axId val="-85342576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799958336"/>
+        <c:axId val="-85344208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2488,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799963232"/>
+        <c:crossAx val="-85342576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2496,7 +2496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799963232"/>
+        <c:axId val="-85342576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1000"/>
@@ -2548,7 +2548,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799958336"/>
+        <c:crossAx val="-85344208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,88 +2840,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>13381.884159468407</c:v>
+                  <c:v>4.4908999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13797.191627218766</c:v>
+                  <c:v>4.7833411111111113E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14128.649634452517</c:v>
+                  <c:v>5.6997244444444449E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14511.019560935903</c:v>
+                  <c:v>6.7151500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14925.882475218497</c:v>
+                  <c:v>8.0289055555555572E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15563.882921480617</c:v>
+                  <c:v>7.4515250000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15799.596068168668</c:v>
+                  <c:v>0.1942865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16357.739666156878</c:v>
+                  <c:v>0.31479300555555562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16935.121568843122</c:v>
+                  <c:v>0.4688157444444444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17736.914638193048</c:v>
+                  <c:v>0.75098587288888896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18464.078545158507</c:v>
+                  <c:v>1.5125292461111111</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19166.692215718551</c:v>
+                  <c:v>2.5696538138888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20058.735773087752</c:v>
+                  <c:v>3.8781358194444442</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20435.969784417954</c:v>
+                  <c:v>7.5893511322222222</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20278.499739432627</c:v>
+                  <c:v>14.32391649666268</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21589.613748314347</c:v>
+                  <c:v>23.49694855276784</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22277.930768954324</c:v>
+                  <c:v>47.169829848214562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22832.897362521064</c:v>
+                  <c:v>72.209920163895447</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23467.918512807806</c:v>
+                  <c:v>86.539293843353136</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24074.119579745573</c:v>
+                  <c:v>98.23745086832993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24308.615009446032</c:v>
+                  <c:v>109.12889129282949</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24951.573195105961</c:v>
+                  <c:v>113.33675806052599</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>25699.435183038651</c:v>
+                  <c:v>123.6098622674243</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26745.772154130489</c:v>
+                  <c:v>137.07028077749499</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>27099.499905623976</c:v>
+                  <c:v>151.15856223130299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>26986.49569151612</c:v>
+                  <c:v>176.52050900938389</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28520.172901436086</c:v>
+                  <c:v>198.72932143421099</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29165.129834866351</c:v>
+                  <c:v>246.43538769986671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3150,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799962688"/>
-        <c:axId val="1799968672"/>
+        <c:axId val="-85342032"/>
+        <c:axId val="-85365968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799962688"/>
+        <c:axId val="-85342032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3197,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799968672"/>
+        <c:crossAx val="-85365968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3205,7 +3205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799968672"/>
+        <c:axId val="-85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3256,7 +3256,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799962688"/>
+        <c:crossAx val="-85342032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4829,11 +4829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799967584"/>
-        <c:axId val="1799959968"/>
+        <c:axId val="-85353456"/>
+        <c:axId val="-85359984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799967584"/>
+        <c:axId val="-85353456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799959968"/>
+        <c:crossAx val="-85359984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4940,7 +4940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799959968"/>
+        <c:axId val="-85359984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5051,7 +5051,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799967584"/>
+        <c:crossAx val="-85353456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,11 +6641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799964864"/>
-        <c:axId val="1799951264"/>
+        <c:axId val="-85352912"/>
+        <c:axId val="-85372496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799964864"/>
+        <c:axId val="-85352912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6744,7 +6744,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799951264"/>
+        <c:crossAx val="-85372496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6752,7 +6752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799951264"/>
+        <c:axId val="-85372496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6926,7 +6926,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799964864"/>
+        <c:crossAx val="-85352912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8516,11 +8516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1799965408"/>
-        <c:axId val="1799968128"/>
+        <c:axId val="-85368144"/>
+        <c:axId val="-85347472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1799965408"/>
+        <c:axId val="-85368144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8618,7 +8618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799968128"/>
+        <c:crossAx val="-85347472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8626,7 +8626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1799968128"/>
+        <c:axId val="-85347472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8737,7 +8737,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799965408"/>
+        <c:crossAx val="-85368144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12746,7 +12746,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12782,7 +12782,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE5A84D3-3B95-4751-AB61-8FC988A677C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12818,7 +12818,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C617624-FE52-4DCD-8C39-3F11320729FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12859,7 +12859,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12900,7 +12900,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F3246A0-531D-47E5-A738-3FB2657C8530}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12938,7 +12938,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79BBC34B-96F8-43DD-BFB1-E9EC6B3D4A8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12976,7 +12976,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57401206-F1A1-4A59-AFBD-49D30E7ACBD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13268,7 +13268,7 @@
       <pane xSplit="4" ySplit="6" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3:AF3"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13475,88 +13475,88 @@
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="G4" s="1">
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="H4" s="1">
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="I4" s="1">
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="J4" s="1">
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="K4" s="1">
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="L4" s="1">
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="M4" s="1">
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="N4" s="1">
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="O4" s="1">
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="P4" s="1">
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="Q4" s="1">
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="R4" s="1">
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="S4" s="1">
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="T4" s="1">
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="U4" s="1">
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="V4" s="1">
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="W4" s="1">
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="X4" s="1">
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="Y4" s="1">
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="Z4" s="1">
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="AA4" s="1">
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="AB4" s="38">
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="AC4" s="1">
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="AD4" s="1">
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AE4" s="1">
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AF4" s="39">
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
@@ -14419,111 +14419,111 @@
       </c>
       <c r="F16">
         <f>$A16*($C16*E$4)+($B16-$A16)*(E$3)-($B16/($C16*E$4))*(E3^2)</f>
-        <v>0.54554053463146546</v>
+        <v>2.3545067391074508E-4</v>
       </c>
       <c r="G16">
         <f>$A16*($C16*F$4)+($B16-$A16)*(F$17)-($B16/($C16*F$4))*(F17^2)</f>
-        <v>0.71490225413928754</v>
+        <v>2.4479630316454743E-4</v>
       </c>
       <c r="H16">
         <f t="shared" ref="H16:AF16" si="6">$A16*($C16*G$4)+($B16-$A16)*(G$17)-($B16/($C16*G$4))*(G17^2)</f>
-        <v>0.92794904462615535</v>
+        <v>3.0200603749585241E-4</v>
       </c>
       <c r="I16">
         <f t="shared" si="6"/>
-        <v>1.2021742706662228</v>
+        <v>3.60779575760765E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="6"/>
-        <v>1.5535842235190453</v>
+        <v>4.3465394339524388E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>2.0110227161271164</v>
+        <v>3.7625954551907771E-4</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>2.5774627744990481</v>
+        <v>8.2622493037463928E-4</v>
       </c>
       <c r="M16">
         <f t="shared" si="6"/>
-        <v>3.3117617951681302</v>
+        <v>1.0922835387033735E-3</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>4.2459938289442984</v>
+        <v>1.4011951698557905E-3</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>5.4413394378061097</v>
+        <v>1.8165798352062284E-3</v>
       </c>
       <c r="P16">
         <f t="shared" si="6"/>
-        <v>6.9522169307710557</v>
+        <v>2.4140390689280948E-3</v>
       </c>
       <c r="Q16">
         <f t="shared" si="6"/>
-        <v>8.8596952993828122</v>
+        <v>3.1438427446103994E-3</v>
       </c>
       <c r="R16">
         <f t="shared" si="6"/>
-        <v>11.271561159162658</v>
+        <v>4.0624275732565433E-3</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>14.266951121312401</v>
+        <v>5.3831879530972827E-3</v>
       </c>
       <c r="T16">
         <f t="shared" si="6"/>
-        <v>17.955852357558296</v>
+        <v>7.1831155394195155E-3</v>
       </c>
       <c r="U16">
         <f t="shared" si="6"/>
-        <v>22.633516537932657</v>
+        <v>9.5610924185817302E-3</v>
       </c>
       <c r="V16">
         <f t="shared" si="6"/>
-        <v>28.336631456848266</v>
+        <v>1.322128495393627E-2</v>
       </c>
       <c r="W16">
         <f t="shared" si="6"/>
-        <v>35.255034616507714</v>
+        <v>1.7919011791254599E-2</v>
       </c>
       <c r="X16">
         <f t="shared" si="6"/>
-        <v>43.571310443468448</v>
+        <v>2.3442031211412306E-2</v>
       </c>
       <c r="Y16">
         <f t="shared" si="6"/>
-        <v>53.390969304217293</v>
+        <v>3.0353290888032038E-2</v>
       </c>
       <c r="Z16">
         <f t="shared" si="6"/>
-        <v>64.588875610568451</v>
+        <v>3.9093300386276307E-2</v>
       </c>
       <c r="AA16">
         <f t="shared" si="6"/>
-        <v>77.350480325665387</v>
+        <v>4.9849918557079917E-2</v>
       </c>
       <c r="AB16" s="43">
         <f t="shared" si="6"/>
-        <v>91.411582197915607</v>
+        <v>6.3721882923368139E-2</v>
       </c>
       <c r="AC16" s="44">
         <f t="shared" si="6"/>
-        <v>106.68388091242173</v>
+        <v>8.138594081903755E-2</v>
       </c>
       <c r="AD16" s="44">
         <f t="shared" si="6"/>
-        <v>121.18108472829159</v>
+        <v>0.10365703060488553</v>
       </c>
       <c r="AE16" s="44">
         <f t="shared" si="6"/>
-        <v>133.12811396185128</v>
+        <v>0.13236160460249397</v>
       </c>
       <c r="AF16" s="45">
         <f t="shared" si="6"/>
-        <v>147.33517940083459</v>
+        <v>0.1682031942285088</v>
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
@@ -14539,111 +14539,111 @@
       </c>
       <c r="F17" s="6">
         <f>E$3+F16</f>
-        <v>0.5475805346314655</v>
+        <v>2.2754506739107463E-3</v>
       </c>
       <c r="G17" s="6">
         <f>F17+G16</f>
-        <v>1.262482788770753</v>
+        <v>2.5202469770752938E-3</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" ref="H17" si="7">G17+H16</f>
-        <v>2.1904318333969082</v>
+        <v>2.8222530145711462E-3</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17" si="8">H17+I16</f>
-        <v>3.3926061040631312</v>
+        <v>3.1830325903319111E-3</v>
       </c>
       <c r="J17" s="6">
         <f t="shared" ref="J17" si="9">I17+J16</f>
-        <v>4.9461903275821761</v>
+        <v>3.6176865337271551E-3</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ref="K17" si="10">J17+K16</f>
-        <v>6.9572130437092925</v>
+        <v>3.9939460792462328E-3</v>
       </c>
       <c r="L17" s="6">
         <f t="shared" ref="L17" si="11">K17+L16</f>
-        <v>9.5346758182083402</v>
+        <v>4.8201710096208716E-3</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" ref="M17" si="12">L17+M16</f>
-        <v>12.846437613376469</v>
+        <v>5.9124545483242447E-3</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" ref="N17" si="13">M17+N16</f>
-        <v>17.092431442320766</v>
+        <v>7.3136497181800347E-3</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" ref="O17" si="14">N17+O16</f>
-        <v>22.533770880126877</v>
+        <v>9.130229553386264E-3</v>
       </c>
       <c r="P17" s="6">
         <f t="shared" ref="P17" si="15">O17+P16</f>
-        <v>29.485987810897932</v>
+        <v>1.154426862231436E-2</v>
       </c>
       <c r="Q17" s="6">
         <f t="shared" ref="Q17" si="16">P17+Q16</f>
-        <v>38.345683110280746</v>
+        <v>1.4688111366924758E-2</v>
       </c>
       <c r="R17" s="6">
         <f t="shared" ref="R17" si="17">Q17+R16</f>
-        <v>49.617244269443404</v>
+        <v>1.8750538940181301E-2</v>
       </c>
       <c r="S17" s="6">
         <f t="shared" ref="S17" si="18">R17+S16</f>
-        <v>63.884195390755806</v>
+        <v>2.4133726893278584E-2</v>
       </c>
       <c r="T17" s="6">
         <f t="shared" ref="T17" si="19">S17+T16</f>
-        <v>81.840047748314106</v>
+        <v>3.1316842432698097E-2</v>
       </c>
       <c r="U17" s="6">
         <f t="shared" ref="U17" si="20">T17+U16</f>
-        <v>104.47356428624676</v>
+        <v>4.0877934851279829E-2</v>
       </c>
       <c r="V17" s="6">
         <f t="shared" ref="V17" si="21">U17+V16</f>
-        <v>132.81019574309502</v>
+        <v>5.4099219805216099E-2</v>
       </c>
       <c r="W17" s="6">
         <f t="shared" ref="W17" si="22">V17+W16</f>
-        <v>168.06523035960274</v>
+        <v>7.2018231596470694E-2</v>
       </c>
       <c r="X17" s="6">
         <f t="shared" ref="X17" si="23">W17+X16</f>
-        <v>211.63654080307117</v>
+        <v>9.5460262807883001E-2</v>
       </c>
       <c r="Y17" s="6">
         <f t="shared" ref="Y17" si="24">X17+Y16</f>
-        <v>265.02751010728844</v>
+        <v>0.12581355369591504</v>
       </c>
       <c r="Z17" s="6">
         <f t="shared" ref="Z17" si="25">Y17+Z16</f>
-        <v>329.61638571785687</v>
+        <v>0.16490685408219136</v>
       </c>
       <c r="AA17" s="6">
         <f t="shared" ref="AA17" si="26">Z17+AA16</f>
-        <v>406.96686604352226</v>
+        <v>0.21475677263927129</v>
       </c>
       <c r="AB17" s="49">
         <f t="shared" ref="AB17" si="27">AA17+AB16</f>
-        <v>498.37844824143787</v>
+        <v>0.2784786555626394</v>
       </c>
       <c r="AC17" s="50">
         <f t="shared" ref="AC17" si="28">AB17+AC16</f>
-        <v>605.06232915385954</v>
+        <v>0.35986459638167695</v>
       </c>
       <c r="AD17" s="50">
         <f t="shared" ref="AD17" si="29">AC17+AD16</f>
-        <v>726.24341388215112</v>
+        <v>0.46352162698656246</v>
       </c>
       <c r="AE17" s="50">
         <f t="shared" ref="AE17" si="30">AD17+AE16</f>
-        <v>859.37152784400246</v>
+        <v>0.59588323158905643</v>
       </c>
       <c r="AF17" s="51">
         <f t="shared" ref="AF17" si="31">AE17+AF16</f>
-        <v>1006.706707244837</v>
+        <v>0.76408642581756525</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
@@ -14652,126 +14652,126 @@
       </c>
       <c r="B18" s="17">
         <f>AF17-$AF$3</f>
-        <v>986.57575624483707</v>
+        <v>-19.366864574182433</v>
       </c>
       <c r="C18" s="18">
         <f>((AF17-AA17)-($AF$3-$AA$3))</f>
-        <v>588.71151620131479</v>
+        <v>-10.478995346821705</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="5">
         <f>SUM(F18:AA18)</f>
-        <v>440737.94355393667</v>
+        <v>269.74010511607065</v>
       </c>
       <c r="F18">
         <f>(F3-F17)^2</f>
-        <v>0.29694896061550402</v>
+        <v>1.4051201726956767E-7</v>
       </c>
       <c r="G18">
         <f t="shared" ref="G18:AF18" si="32">(G3-G17)^2</f>
-        <v>1.5852723454990494</v>
+        <v>7.8597626245693493E-7</v>
       </c>
       <c r="H18">
         <f t="shared" si="32"/>
-        <v>4.7800971714891043</v>
+        <v>1.6033814281076602E-6</v>
       </c>
       <c r="I18">
         <f>(I3-I17)^2</f>
-        <v>11.478941104566212</v>
+        <v>1.8617713120463452E-6</v>
       </c>
       <c r="J18">
         <f t="shared" si="32"/>
-        <v>24.413155661750949</v>
+        <v>2.5778340442300715E-6</v>
       </c>
       <c r="K18">
         <f t="shared" si="32"/>
-        <v>48.317131465407428</v>
+        <v>4.693955891533522E-6</v>
       </c>
       <c r="L18">
         <f t="shared" si="32"/>
-        <v>90.774635231447064</v>
+        <v>5.2133629479067313E-6</v>
       </c>
       <c r="M18">
         <f t="shared" si="32"/>
-        <v>164.83145541557428</v>
+        <v>3.4404516496022415E-6</v>
       </c>
       <c r="N18">
         <f t="shared" si="32"/>
-        <v>291.86249080417758</v>
+        <v>1.2867142629120173E-6</v>
       </c>
       <c r="O18">
         <f t="shared" si="32"/>
-        <v>507.29769690420022</v>
+        <v>1.8783537050952454E-6</v>
       </c>
       <c r="P18">
         <f t="shared" si="32"/>
-        <v>868.72149564809615</v>
+        <v>1.3088576524011967E-7</v>
       </c>
       <c r="Q18">
         <f t="shared" si="32"/>
-        <v>1469.0112926021</v>
+        <v>1.0968606317892985E-5</v>
       </c>
       <c r="R18">
         <f t="shared" si="32"/>
-        <v>2457.7048443749809</v>
+        <v>5.4053743957202614E-4</v>
       </c>
       <c r="S18">
         <f t="shared" si="32"/>
-        <v>4058.9889967282825</v>
+        <v>2.2459899814898408E-2</v>
       </c>
       <c r="T18">
         <f t="shared" si="32"/>
-        <v>6596.6961562384222</v>
+        <v>0.34654786000340887</v>
       </c>
       <c r="U18">
         <f t="shared" si="32"/>
-        <v>10484.884147313614</v>
+        <v>4.149218528780068</v>
       </c>
       <c r="V18">
         <f t="shared" si="32"/>
-        <v>16587.860110638114</v>
+        <v>15.699264831062404</v>
       </c>
       <c r="W18">
         <f t="shared" si="32"/>
-        <v>26677.017638440586</v>
+        <v>21.736162626935144</v>
       </c>
       <c r="X18">
         <f t="shared" si="32"/>
-        <v>42321.97939196862</v>
+        <v>33.849307118215137</v>
       </c>
       <c r="Y18">
         <f t="shared" si="32"/>
-        <v>66442.458124117969</v>
+        <v>50.941771393357122</v>
       </c>
       <c r="Z18">
         <f t="shared" si="32"/>
-        <v>103331.03002539162</v>
+        <v>64.000578335991477</v>
       </c>
       <c r="AA18">
         <f t="shared" si="32"/>
-        <v>158295.9535054095</v>
+        <v>78.994219402665806</v>
       </c>
       <c r="AB18" s="43">
         <f t="shared" si="32"/>
-        <v>238079.32803492667</v>
+        <v>103.35236141095913</v>
       </c>
       <c r="AC18" s="44">
         <f t="shared" si="32"/>
-        <v>351945.47132206021</v>
+        <v>131.16070460159193</v>
       </c>
       <c r="AD18" s="44">
         <f t="shared" si="32"/>
-        <v>508736.82889126515</v>
+        <v>156.80034307778021</v>
       </c>
       <c r="AE18" s="44">
         <f t="shared" si="32"/>
-        <v>712530.83695372392</v>
+        <v>214.92227822168735</v>
       </c>
       <c r="AF18" s="45">
         <f t="shared" si="32"/>
-        <v>973331.72281007213</v>
+        <v>375.0754434347225</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14780,126 +14780,126 @@
       </c>
       <c r="B19" s="20">
         <f>(B18/$AF$3)*100</f>
-        <v>4900.7906096678544</v>
+        <v>-96.204419623208224</v>
       </c>
       <c r="C19" s="21">
         <f>((C18)/($AF$3-$AA$3))*100</f>
-        <v>5338.177068605748</v>
+        <v>-95.018920342134521</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5">
         <f>SUM(F19:AA19)</f>
-        <v>1920.8748663825613</v>
+        <v>41.284449955568007</v>
       </c>
       <c r="F19">
         <f>SQRT(F18)</f>
-        <v>0.5449302346314655</v>
+        <v>3.7484932608925371E-4</v>
       </c>
       <c r="G19">
         <f t="shared" ref="G19" si="33">SQRT(G18)</f>
-        <v>1.259075988770753</v>
+        <v>8.865530229247064E-4</v>
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="34">SQRT(H18)</f>
-        <v>2.1863433333969082</v>
+        <v>1.2662469854288539E-3</v>
       </c>
       <c r="I19">
         <f t="shared" ref="I19" si="35">SQRT(I18)</f>
-        <v>3.3880586040631311</v>
+        <v>1.3644674096680892E-3</v>
       </c>
       <c r="J19">
         <f t="shared" ref="J19" si="36">SQRT(J18)</f>
-        <v>4.9409670775821759</v>
+        <v>1.6055634662728445E-3</v>
       </c>
       <c r="K19">
         <f t="shared" ref="K19" si="37">SQRT(K18)</f>
-        <v>6.9510525437092925</v>
+        <v>2.1665539207537674E-3</v>
       </c>
       <c r="L19">
         <f t="shared" ref="L19" si="38">SQRT(L18)</f>
-        <v>9.5275723682083395</v>
+        <v>2.2832789903791282E-3</v>
       </c>
       <c r="M19">
         <f t="shared" ref="M19" si="39">SQRT(M18)</f>
-        <v>12.83867031337647</v>
+        <v>1.8548454516757566E-3</v>
       </c>
       <c r="N19">
         <f t="shared" ref="N19" si="40">SQRT(N18)</f>
-        <v>17.083983458320766</v>
+        <v>1.1343342818199657E-3</v>
       </c>
       <c r="O19">
         <f t="shared" ref="O19" si="41">SQRT(O18)</f>
-        <v>22.523270120126877</v>
+        <v>1.3705304466137356E-3</v>
       </c>
       <c r="P19">
         <f t="shared" ref="P19" si="42">SQRT(P18)</f>
-        <v>29.474081760897931</v>
+        <v>3.6178137768563996E-4</v>
       </c>
       <c r="Q19">
         <f t="shared" ref="Q19" si="43">SQRT(Q18)</f>
-        <v>38.327683110280745</v>
+        <v>3.3118886330752405E-3</v>
       </c>
       <c r="R19">
         <f t="shared" ref="R19" si="44">SQRT(R18)</f>
-        <v>49.575244269443402</v>
+        <v>2.3249461059818701E-2</v>
       </c>
       <c r="S19">
         <f t="shared" ref="S19" si="45">SQRT(S18)</f>
-        <v>63.710195390755807</v>
+        <v>0.1498662731067214</v>
       </c>
       <c r="T19">
         <f t="shared" ref="T19" si="46">SQRT(T18)</f>
-        <v>81.220047748314101</v>
+        <v>0.58868315756730194</v>
       </c>
       <c r="U19">
         <f t="shared" ref="U19" si="47">SQRT(U18)</f>
-        <v>102.39572328624675</v>
+        <v>2.0369630651487198</v>
       </c>
       <c r="V19">
         <f t="shared" ref="V19" si="48">SQRT(V18)</f>
-        <v>128.79386674309501</v>
+        <v>3.9622297801947837</v>
       </c>
       <c r="W19">
         <f t="shared" ref="W19" si="49">SQRT(W18)</f>
-        <v>163.33100635960272</v>
+        <v>4.6622057684035294</v>
       </c>
       <c r="X19">
         <f t="shared" ref="X19" si="50">SQRT(X18)</f>
-        <v>205.72306480307117</v>
+        <v>5.8180157371921171</v>
       </c>
       <c r="Y19">
         <f t="shared" ref="Y19" si="51">SQRT(Y18)</f>
-        <v>257.76434610728842</v>
+        <v>7.1373504463040849</v>
       </c>
       <c r="Z19">
         <f t="shared" ref="Z19" si="52">SQRT(Z18)</f>
-        <v>321.45144271785688</v>
+        <v>8.0000361459178091</v>
       </c>
       <c r="AA19">
         <f t="shared" ref="AA19" si="53">SQRT(AA18)</f>
-        <v>397.86424004352227</v>
+        <v>8.8878692273607296</v>
       </c>
       <c r="AB19" s="43">
         <f t="shared" ref="AB19" si="54">SQRT(AB18)</f>
-        <v>487.93373324143789</v>
+        <v>10.166236344437362</v>
       </c>
       <c r="AC19" s="44">
         <f t="shared" ref="AC19" si="55">SQRT(AC18)</f>
-        <v>593.24992315385953</v>
+        <v>11.452541403618323</v>
       </c>
       <c r="AD19" s="44">
         <f t="shared" ref="AD19" si="56">SQRT(AD18)</f>
-        <v>713.25789788215116</v>
+        <v>12.521994373013438</v>
       </c>
       <c r="AE19" s="44">
         <f t="shared" ref="AE19" si="57">SQRT(AE18)</f>
-        <v>844.11541684400243</v>
+        <v>14.660227768410945</v>
       </c>
       <c r="AF19" s="45">
         <f t="shared" ref="AF19" si="58">SQRT(AF18)</f>
-        <v>986.57575624483707</v>
+        <v>19.366864574182433</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15044,111 +15044,111 @@
       </c>
       <c r="F24">
         <f>$A24*($C24/($C24+E5))*E$4+($B24-$A24)*(E$3)-($B24/(($C24/($C24+E5))*E$4)*(E$3^2))</f>
-        <v>3.7697358103783669</v>
+        <v>3.1734698273947241E-5</v>
       </c>
       <c r="G24">
         <f>$A24*($C24/($C24+F5))*F$4+($B24-$A24)*(F$25)-($B24/(($C24/($C24+F5))*F$4)*(F$25^2))</f>
-        <v>4.8928688352189136</v>
+        <v>7.3475817513738654E-5</v>
       </c>
       <c r="H24">
         <f t="shared" ref="H24:AF24" si="60">$A24*($C24/($C24+G5))*G$4+($B24-$A24)*(G$25)-($B24/(($C24/($C24+G5))*G$4)*(G$25^2))</f>
-        <v>5.4463097193068206</v>
+        <v>7.1063601485124302E-5</v>
       </c>
       <c r="I24">
         <f t="shared" si="60"/>
-        <v>5.9142922433656473</v>
+        <v>6.9055978558682702E-5</v>
       </c>
       <c r="J24">
         <f t="shared" si="60"/>
-        <v>6.3957430378156293</v>
+        <v>1.2386457362472216E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="60"/>
-        <v>6.9826480806106996</v>
+        <v>-1.7767274505034718E-6</v>
       </c>
       <c r="L24">
         <f t="shared" si="60"/>
-        <v>7.4693855853159485</v>
+        <v>7.2032180843636722E-4</v>
       </c>
       <c r="M24">
         <f t="shared" si="60"/>
-        <v>8.0796812789595833</v>
+        <v>1.115543798869671E-3</v>
       </c>
       <c r="N24">
         <f t="shared" si="60"/>
-        <v>8.752503405851165</v>
+        <v>1.5121112078397426E-3</v>
       </c>
       <c r="O24">
         <f t="shared" si="60"/>
-        <v>9.5657608834174859</v>
+        <v>1.9753871426099094E-3</v>
       </c>
       <c r="P24">
         <f t="shared" si="60"/>
-        <v>10.413477626977436</v>
+        <v>2.7141244408336444E-3</v>
       </c>
       <c r="Q24">
         <f t="shared" si="60"/>
-        <v>11.293443929764761</v>
+        <v>3.8604915857120281E-3</v>
       </c>
       <c r="R24">
         <f t="shared" si="60"/>
-        <v>12.309465368237722</v>
+        <v>5.1217462651345696E-3</v>
       </c>
       <c r="S24">
         <f t="shared" si="60"/>
-        <v>13.133401201804034</v>
+        <v>8.6747403139389723E-3</v>
       </c>
       <c r="T24">
         <f t="shared" si="60"/>
-        <v>13.655937472965089</v>
+        <v>1.8079235019576773E-2</v>
       </c>
       <c r="U24">
         <f t="shared" si="60"/>
-        <v>14.955807928256332</v>
+        <v>5.0567172469481662E-2</v>
       </c>
       <c r="V24">
         <f t="shared" si="60"/>
-        <v>16.186164384242041</v>
+        <v>0.14971991547782246</v>
       </c>
       <c r="W24">
         <f t="shared" si="60"/>
-        <v>17.56871316112343</v>
+        <v>0.37428189629821318</v>
       </c>
       <c r="X24">
         <f t="shared" si="60"/>
-        <v>19.161275129140659</v>
+        <v>0.5381293922786442</v>
       </c>
       <c r="Y24">
         <f t="shared" si="60"/>
-        <v>20.552891313927379</v>
+        <v>0.63290872912648932</v>
       </c>
       <c r="Z24">
         <f t="shared" si="60"/>
-        <v>21.778940457705232</v>
+        <v>0.72402831328201434</v>
       </c>
       <c r="AA24">
         <f t="shared" si="60"/>
-        <v>23.298183131404798</v>
+        <v>0.74743353160351411</v>
       </c>
       <c r="AB24" s="43">
         <f t="shared" si="60"/>
-        <v>24.887119997627106</v>
+        <v>0.84465511838411911</v>
       </c>
       <c r="AC24" s="44">
         <f t="shared" si="60"/>
-        <v>26.748040677103795</v>
+        <v>0.97530827007602983</v>
       </c>
       <c r="AD24" s="44">
         <f t="shared" si="60"/>
-        <v>28.269302300211759</v>
+        <v>1.1026452711152135</v>
       </c>
       <c r="AE24" s="44">
         <f t="shared" si="60"/>
-        <v>29.372191006357756</v>
+        <v>1.3511451429325114</v>
       </c>
       <c r="AF24" s="45">
         <f t="shared" si="60"/>
-        <v>31.652685659192944</v>
+        <v>1.5756708008776201</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
@@ -15164,111 +15164,111 @@
       </c>
       <c r="F25" s="6">
         <f>E$3+F24</f>
-        <v>3.771775810378367</v>
+        <v>2.0717346982739482E-3</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" ref="G25:AF25" si="61">F$3+G24</f>
-        <v>4.8955191352189136</v>
+        <v>2.7237758175137385E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="61"/>
-        <v>5.4497165193068202</v>
+        <v>3.4778636014851246E-3</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="61"/>
-        <v>5.9183807433656472</v>
+        <v>4.1575559785586831E-3</v>
       </c>
       <c r="J25" s="6">
         <f t="shared" si="61"/>
-        <v>6.4002905378156294</v>
+        <v>4.6713645736247223E-3</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" si="61"/>
-        <v>6.9878713306106999</v>
+        <v>5.2214732725494959E-3</v>
       </c>
       <c r="L25" s="6">
         <f t="shared" si="61"/>
-        <v>7.4755460853159486</v>
+        <v>6.880821808436367E-3</v>
       </c>
       <c r="M25" s="6">
         <f t="shared" si="61"/>
-        <v>8.086784728959584</v>
+        <v>8.2189937988696709E-3</v>
       </c>
       <c r="N25" s="6">
         <f t="shared" si="61"/>
-        <v>8.7602707058511644</v>
+        <v>9.2794112078397432E-3</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="61"/>
-        <v>9.5742088674174859</v>
+        <v>1.0423371142609911E-2</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="61"/>
-        <v>10.423978386977435</v>
+        <v>1.3214884440833644E-2</v>
       </c>
       <c r="Q25" s="6">
         <f t="shared" si="61"/>
-        <v>11.305349979764761</v>
+        <v>1.5766541585712029E-2</v>
       </c>
       <c r="R25" s="6">
         <f t="shared" si="61"/>
-        <v>12.327465368237723</v>
+        <v>2.3121746265134569E-2</v>
       </c>
       <c r="S25" s="6">
         <f t="shared" si="61"/>
-        <v>13.175401201804034</v>
+        <v>5.0674740313938975E-2</v>
       </c>
       <c r="T25" s="6">
         <f t="shared" si="61"/>
-        <v>13.829937472965089</v>
+        <v>0.19207923501957677</v>
       </c>
       <c r="U25" s="6">
         <f t="shared" si="61"/>
-        <v>15.575807928256332</v>
+        <v>0.67056717246948161</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="61"/>
-        <v>18.26400538424204</v>
+        <v>2.2275609154778224</v>
       </c>
       <c r="W25" s="6">
         <f t="shared" si="61"/>
-        <v>21.585042161123429</v>
+        <v>4.3906108962982131</v>
       </c>
       <c r="X25" s="6">
         <f t="shared" si="61"/>
-        <v>23.89549912914066</v>
+        <v>5.2723533922786441</v>
       </c>
       <c r="Y25" s="6">
         <f t="shared" si="61"/>
-        <v>26.466367313927378</v>
+        <v>6.5463847291264896</v>
       </c>
       <c r="Z25" s="6">
         <f t="shared" si="61"/>
-        <v>29.042104457705232</v>
+        <v>7.987192313282014</v>
       </c>
       <c r="AA25" s="6">
         <f t="shared" si="61"/>
-        <v>31.463126131404799</v>
+        <v>8.9123765316035151</v>
       </c>
       <c r="AB25" s="49">
         <f t="shared" si="61"/>
-        <v>33.989745997627111</v>
+        <v>9.9472811183841205</v>
       </c>
       <c r="AC25" s="50">
         <f t="shared" si="61"/>
-        <v>37.192755677103797</v>
+        <v>11.42002327007603</v>
       </c>
       <c r="AD25" s="50">
         <f t="shared" si="61"/>
-        <v>40.081708300211758</v>
+        <v>12.915051271115212</v>
       </c>
       <c r="AE25" s="50">
         <f t="shared" si="61"/>
-        <v>42.357707006357757</v>
+        <v>14.336661142932511</v>
       </c>
       <c r="AF25" s="51">
         <f t="shared" si="61"/>
-        <v>46.908796659192944</v>
+        <v>16.831781800877621</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
@@ -15277,126 +15277,126 @@
       </c>
       <c r="B26" s="17">
         <f>AF25-$AF$3</f>
-        <v>26.777845659192945</v>
+        <v>-3.2991691991223782</v>
       </c>
       <c r="C26" s="18">
         <f>((AF25-AA25)-($AF$3-$AA$3))</f>
-        <v>4.4173455277881466</v>
+        <v>-3.1089197307258924</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5">
         <f>SUM(F26:AA26)</f>
-        <v>3508.9081385558684</v>
+        <v>6.4894735930511365</v>
       </c>
       <c r="F26">
         <f>(F3-F25)^2</f>
-        <v>14.206307112984986</v>
+        <v>3.3473780836135731E-7</v>
       </c>
       <c r="G26">
         <f t="shared" ref="G26:AF26" si="62">(G3-G25)^2</f>
-        <v>23.932763100401054</v>
+        <v>4.6652203386102618E-7</v>
       </c>
       <c r="H26">
         <f t="shared" si="62"/>
-        <v>29.654864524659523</v>
+        <v>3.7287681119121786E-7</v>
       </c>
       <c r="I26">
         <f t="shared" si="62"/>
-        <v>34.973423630336647</v>
+        <v>1.5205633985782643E-7</v>
       </c>
       <c r="J26">
         <f t="shared" si="62"/>
-        <v>40.896885615689548</v>
+        <v>3.0457752384542163E-7</v>
       </c>
       <c r="K26">
         <f t="shared" si="62"/>
-        <v>48.74428612226675</v>
+        <v>8.8177119486640362E-7</v>
       </c>
       <c r="L26">
         <f t="shared" si="62"/>
-        <v>55.777635397005035</v>
+        <v>4.9563311678893627E-8</v>
       </c>
       <c r="M26">
         <f t="shared" si="62"/>
-        <v>65.270522617432732</v>
+        <v>2.0402728793731354E-7</v>
       </c>
       <c r="N26">
         <f t="shared" si="62"/>
-        <v>76.594400954710324</v>
+        <v>6.9127120193619098E-7</v>
       </c>
       <c r="O26">
         <f t="shared" si="62"/>
-        <v>91.464512763882965</v>
+        <v>5.9890352481435167E-9</v>
       </c>
       <c r="P26">
         <f t="shared" si="62"/>
-        <v>108.41125035045074</v>
+        <v>1.7130475935123174E-6</v>
       </c>
       <c r="Q26">
         <f t="shared" si="62"/>
-        <v>127.40426956569554</v>
+        <v>4.9883364883537298E-6</v>
       </c>
       <c r="R26">
         <f t="shared" si="62"/>
-        <v>150.93265931416846</v>
+        <v>3.563884640779607E-4</v>
       </c>
       <c r="S26">
         <f t="shared" si="62"/>
-        <v>169.03643321027138</v>
+        <v>1.5209119676634384E-2</v>
       </c>
       <c r="T26">
         <f t="shared" si="62"/>
-        <v>174.50244803964728</v>
+        <v>0.18311618110143058</v>
       </c>
       <c r="U26">
         <f t="shared" si="62"/>
-        <v>182.1951111963017</v>
+        <v>1.9804196256523952</v>
       </c>
       <c r="V26">
         <f t="shared" si="62"/>
-        <v>202.99628235008836</v>
+        <v>3.1996912602051397</v>
       </c>
       <c r="W26">
         <f t="shared" si="62"/>
-        <v>283.95007269924713</v>
+        <v>0.1180699650355751</v>
       </c>
       <c r="X26">
         <f t="shared" si="62"/>
-        <v>323.35315581694965</v>
+        <v>0.41103819813143183</v>
       </c>
       <c r="Y26">
         <f t="shared" si="62"/>
-        <v>368.76301751603148</v>
+        <v>0.51377252315396083</v>
       </c>
       <c r="Z26">
         <f t="shared" si="62"/>
-        <v>435.85587053109282</v>
+        <v>3.1595306628715958E-2</v>
       </c>
       <c r="AA26">
         <f t="shared" si="62"/>
-        <v>499.99196612655402</v>
+        <v>3.6194860225145419E-2</v>
       </c>
       <c r="AB26" s="43">
         <f t="shared" si="62"/>
-        <v>554.36848467922141</v>
+        <v>0.24744046657944119</v>
       </c>
       <c r="AC26" s="44">
         <f t="shared" si="62"/>
-        <v>644.16214973206286</v>
+        <v>0.15396420674258696</v>
       </c>
       <c r="AD26" s="44">
         <f t="shared" si="62"/>
-        <v>734.203637170055</v>
+        <v>4.9652780168067305E-3</v>
       </c>
       <c r="AE26" s="44">
         <f t="shared" si="62"/>
-        <v>734.49650609182663</v>
+        <v>0.84538803966142628</v>
       </c>
       <c r="AF26" s="45">
         <f t="shared" si="62"/>
-        <v>717.05301814755842</v>
+        <v>10.884517404437794</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15405,126 +15405,126 @@
       </c>
       <c r="B27" s="20">
         <f>(B26/$AF$3)*100</f>
-        <v>133.01828442775977</v>
+        <v>-16.388541202660413</v>
       </c>
       <c r="C27" s="21">
         <f>((C26)/($AF$3-$AA$3))*100</f>
-        <v>40.054546159894159</v>
+        <v>-28.190316577774894</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="5">
         <f>SUM(F27:AA27)</f>
-        <v>252.47604398578912</v>
+        <v>5.8445598408339503</v>
       </c>
       <c r="F27">
         <f>SQRT(F26)</f>
-        <v>3.769125510378367</v>
+        <v>5.7856530172605176E-4</v>
       </c>
       <c r="G27">
         <f t="shared" ref="G27" si="63">SQRT(G26)</f>
-        <v>4.892112335218914</v>
+        <v>6.8302418248626174E-4</v>
       </c>
       <c r="H27">
         <f t="shared" ref="H27" si="64">SQRT(H26)</f>
-        <v>5.4456280193068203</v>
+        <v>6.1063639851487552E-4</v>
       </c>
       <c r="I27">
         <f t="shared" ref="I27" si="65">SQRT(I26)</f>
-        <v>5.9138332433656471</v>
+        <v>3.8994402144131718E-4</v>
       </c>
       <c r="J27">
         <f t="shared" ref="J27" si="66">SQRT(J26)</f>
-        <v>6.3950672878156292</v>
+        <v>5.5188542637527732E-4</v>
       </c>
       <c r="K27">
         <f t="shared" ref="K27" si="67">SQRT(K26)</f>
-        <v>6.9817108306106999</v>
+        <v>9.3902672745050427E-4</v>
       </c>
       <c r="L27">
         <f t="shared" ref="L27" si="68">SQRT(L26)</f>
-        <v>7.4684426353159488</v>
+        <v>2.226281915636329E-4</v>
       </c>
       <c r="M27">
         <f t="shared" ref="M27" si="69">SQRT(M26)</f>
-        <v>8.0790174289595846</v>
+        <v>4.5169379886966961E-4</v>
       </c>
       <c r="N27">
         <f t="shared" ref="N27" si="70">SQRT(N26)</f>
-        <v>8.7518227218511644</v>
+        <v>8.3142720783974285E-4</v>
       </c>
       <c r="O27">
         <f t="shared" ref="O27" si="71">SQRT(O26)</f>
-        <v>9.5637081074174866</v>
+        <v>7.7388857390088897E-5</v>
       </c>
       <c r="P27">
         <f t="shared" ref="P27" si="72">SQRT(P26)</f>
-        <v>10.412072336977435</v>
+        <v>1.3088344408336439E-3</v>
       </c>
       <c r="Q27">
         <f t="shared" ref="Q27" si="73">SQRT(Q26)</f>
-        <v>11.287349979764761</v>
+        <v>2.2334584142879692E-3</v>
       </c>
       <c r="R27">
         <f t="shared" ref="R27" si="74">SQRT(R26)</f>
-        <v>12.285465368237723</v>
+        <v>1.8878253734865433E-2</v>
       </c>
       <c r="S27">
         <f t="shared" ref="S27" si="75">SQRT(S26)</f>
-        <v>13.001401201804034</v>
+        <v>0.12332525968606101</v>
       </c>
       <c r="T27">
         <f t="shared" ref="T27" si="76">SQRT(T26)</f>
-        <v>13.209937472965089</v>
+        <v>0.4279207649804232</v>
       </c>
       <c r="U27">
         <f t="shared" ref="U27" si="77">SQRT(U26)</f>
-        <v>13.497966928256332</v>
+        <v>1.4072738275305183</v>
       </c>
       <c r="V27">
         <f t="shared" ref="V27" si="78">SQRT(V26)</f>
-        <v>14.247676384242041</v>
+        <v>1.7887680845221774</v>
       </c>
       <c r="W27">
         <f t="shared" ref="W27" si="79">SQRT(W26)</f>
-        <v>16.850818161123428</v>
+        <v>0.3436131037017871</v>
       </c>
       <c r="X27">
         <f t="shared" ref="X27" si="80">SQRT(X26)</f>
-        <v>17.982023129140661</v>
+        <v>0.6411226077213561</v>
       </c>
       <c r="Y27">
         <f t="shared" ref="Y27" si="81">SQRT(Y26)</f>
-        <v>19.203203313927379</v>
+        <v>0.71677927087351012</v>
       </c>
       <c r="Z27">
         <f t="shared" ref="Z27" si="82">SQRT(Z26)</f>
-        <v>20.877161457705231</v>
+        <v>0.17775068671798699</v>
       </c>
       <c r="AA27">
         <f t="shared" ref="AA27" si="83">SQRT(AA26)</f>
-        <v>22.360500131404798</v>
+        <v>0.19024946839648571</v>
       </c>
       <c r="AB27" s="43">
         <f t="shared" ref="AB27" si="84">SQRT(AB26)</f>
-        <v>23.545030997627109</v>
+        <v>0.49743388161587987</v>
       </c>
       <c r="AC27" s="44">
         <f t="shared" ref="AC27" si="85">SQRT(AC26)</f>
-        <v>25.380349677103798</v>
+        <v>0.39238272992396972</v>
       </c>
       <c r="AD27" s="44">
         <f t="shared" ref="AD27" si="86">SQRT(AD26)</f>
-        <v>27.096192300211758</v>
+        <v>7.0464728884788386E-2</v>
       </c>
       <c r="AE27" s="44">
         <f t="shared" ref="AE27" si="87">SQRT(AE26)</f>
-        <v>27.101596006357756</v>
+        <v>0.91944985706748916</v>
       </c>
       <c r="AF27" s="45">
         <f t="shared" ref="AF27" si="88">SQRT(AF26)</f>
-        <v>26.777845659192945</v>
+        <v>3.2991691991223782</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16242,107 +16242,107 @@
       </c>
       <c r="F43">
         <f>G44-F44</f>
-        <v>2.99385764723805</v>
+        <v>1.1484873227915731E-5</v>
       </c>
       <c r="G43">
         <f t="shared" ref="G43" si="93">H44-G44</f>
-        <v>3.7676554936283395</v>
+        <v>2.2550287420553157E-5</v>
       </c>
       <c r="H43">
         <f t="shared" ref="H43" si="94">I44-H44</f>
-        <v>4.909145505512523</v>
+        <v>3.2644018350593256E-5</v>
       </c>
       <c r="I43">
         <f t="shared" ref="I43" si="95">J44-I44</f>
-        <v>6.3622943501348637</v>
+        <v>5.0484274171958086E-5</v>
       </c>
       <c r="J43">
         <f t="shared" ref="J43" si="96">K44-J44</f>
-        <v>8.6838484908003899</v>
+        <v>2.5015623958197369E-5</v>
       </c>
       <c r="K43">
         <f t="shared" ref="K43" si="97">L44-K44</f>
-        <v>10.028920953460002</v>
+        <v>3.9877470401494851E-4</v>
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="98">M44-L44</f>
-        <v>13.830333564569173</v>
+        <v>5.9066896877456613E-4</v>
       </c>
       <c r="M43">
         <f t="shared" ref="M43" si="99">N44-M44</f>
-        <v>17.725915203819007</v>
+        <v>1.0015964095042734E-3</v>
       </c>
       <c r="N43">
         <f t="shared" ref="N43" si="100">O44-N44</f>
-        <v>23.776403704346237</v>
+        <v>2.1538724319528878E-3</v>
       </c>
       <c r="O43">
         <f t="shared" ref="O43" si="101">P44-O44</f>
-        <v>29.691494337905581</v>
+        <v>6.4708216019570067E-3</v>
       </c>
       <c r="P43">
         <f t="shared" ref="P43" si="102">Q44-P44</f>
-        <v>37.068249335360946</v>
+        <v>1.1839825041991523E-2</v>
       </c>
       <c r="Q43">
         <f t="shared" ref="Q43" si="103">R44-Q44</f>
-        <v>48.057477134983088</v>
+        <v>1.9296375533823431E-2</v>
       </c>
       <c r="R43">
         <f t="shared" ref="R43" si="104">S44-R44</f>
-        <v>52.564503511873028</v>
+        <v>5.8129332708810974E-2</v>
       </c>
       <c r="S43">
         <f t="shared" ref="S43" si="105">T44-S44</f>
-        <v>54.065480279324106</v>
+        <v>0.12844364498600547</v>
       </c>
       <c r="T43">
         <f t="shared" ref="T43" si="106">U44-T44</f>
-        <v>89.499372913202023</v>
+        <v>0.22097471610234298</v>
       </c>
       <c r="U43">
         <f t="shared" ref="U43" si="107">V44-U44</f>
-        <v>92.823070776107443</v>
+        <v>0.62149948073024486</v>
       </c>
       <c r="V43">
         <f t="shared" ref="V43" si="108">W44-V44</f>
-        <v>102.52345105404441</v>
+        <v>0.85291198045037264</v>
       </c>
       <c r="W43">
         <f t="shared" ref="W43" si="109">X44-W44</f>
-        <v>116.32355850490728</v>
+        <v>0.74833762749904698</v>
       </c>
       <c r="X43">
         <f t="shared" ref="X43" si="110">Y44-X44</f>
-        <v>125.62170967239751</v>
+        <v>0.79745532388666618</v>
       </c>
       <c r="Y43">
         <f t="shared" ref="Y43" si="111">Z44-Y44</f>
-        <v>118.45172064921951</v>
+        <v>0.87926320653487577</v>
       </c>
       <c r="Z43">
         <f t="shared" ref="Z43" si="112">AA44-Z44</f>
-        <v>137.9225529118911</v>
+        <v>0.67778518879361105</v>
       </c>
       <c r="AA43">
         <f t="shared" ref="AA43" si="113">AB44-AA44</f>
-        <v>144.95420981128404</v>
+        <v>0.99330045793944954</v>
       </c>
       <c r="AB43" s="43">
         <f t="shared" ref="AB43" si="114">AC44-AB44</f>
-        <v>160.47605690128307</v>
+        <v>1.2168171188362855</v>
       </c>
       <c r="AC43" s="44">
         <f t="shared" ref="AC43" si="115">AD44-AC44</f>
-        <v>120.58378761542099</v>
+        <v>1.3122479732636725</v>
       </c>
       <c r="AD43" s="44">
         <f t="shared" ref="AD43" si="116">AE44-AD44</f>
-        <v>84.711555510339622</v>
+        <v>2.0303080731914829</v>
       </c>
       <c r="AE43" s="44">
         <f t="shared" ref="AE43" si="117">AF44-AE44</f>
-        <v>176.60022994550741</v>
+        <v>1.9211095128003262</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
@@ -16358,111 +16358,111 @@
       </c>
       <c r="F44" s="12">
         <f>$E$3+$C43*E4*(1/(1+EXP(-$A43*(F42-$B43))))</f>
-        <v>9.9667567305578597</v>
+        <v>2.073441140150358E-3</v>
       </c>
       <c r="G44" s="12">
         <f>$E$3+$C43*F4*(1/(1+EXP(-$A43*(G42-$B43))))</f>
-        <v>12.96061437779591</v>
+        <v>2.0849260133782737E-3</v>
       </c>
       <c r="H44" s="12">
         <f t="shared" ref="H44:AF44" si="118">$E$3+$C43*G4*(1/(1+EXP(-$A43*(H42-$B43))))</f>
-        <v>16.728269871424249</v>
+        <v>2.1074763007988269E-3</v>
       </c>
       <c r="I44" s="12">
         <f t="shared" si="118"/>
-        <v>21.637415376936772</v>
+        <v>2.1401203191494201E-3</v>
       </c>
       <c r="J44" s="12">
         <f t="shared" si="118"/>
-        <v>27.999709727071636</v>
+        <v>2.1906045933213782E-3</v>
       </c>
       <c r="K44" s="12">
         <f>$E$3+$C43*J4*(1/(1+EXP(-$A43*(K42-$B43))))</f>
-        <v>36.683558217872026</v>
+        <v>2.2156202172795756E-3</v>
       </c>
       <c r="L44" s="12">
         <f t="shared" si="118"/>
-        <v>46.712479171332028</v>
+        <v>2.6143949212945241E-3</v>
       </c>
       <c r="M44" s="12">
         <f t="shared" si="118"/>
-        <v>60.542812735901201</v>
+        <v>3.2050638900690902E-3</v>
       </c>
       <c r="N44" s="12">
         <f t="shared" si="118"/>
-        <v>78.268727939720208</v>
+        <v>4.2066602995733636E-3</v>
       </c>
       <c r="O44" s="12">
         <f t="shared" si="118"/>
-        <v>102.04513164406644</v>
+        <v>6.3605327315262514E-3</v>
       </c>
       <c r="P44" s="12">
         <f t="shared" si="118"/>
-        <v>131.73662598197203</v>
+        <v>1.2831354333483258E-2</v>
       </c>
       <c r="Q44" s="12">
         <f t="shared" si="118"/>
-        <v>168.80487531733297</v>
+        <v>2.4671179375474781E-2</v>
       </c>
       <c r="R44" s="12">
         <f t="shared" si="118"/>
-        <v>216.86235245231606</v>
+        <v>4.3967554909298212E-2</v>
       </c>
       <c r="S44" s="12">
         <f t="shared" si="118"/>
-        <v>269.42685596418909</v>
+        <v>0.10209688761810919</v>
       </c>
       <c r="T44" s="12">
         <f t="shared" si="118"/>
-        <v>323.49233624351319</v>
+        <v>0.23054053260411467</v>
       </c>
       <c r="U44" s="12">
         <f t="shared" si="118"/>
-        <v>412.99170915671522</v>
+        <v>0.45151524870645765</v>
       </c>
       <c r="V44" s="12">
         <f t="shared" si="118"/>
-        <v>505.81477993282266</v>
+        <v>1.0730147294367025</v>
       </c>
       <c r="W44" s="12">
         <f t="shared" si="118"/>
-        <v>608.33823098686707</v>
+        <v>1.9259267098870752</v>
       </c>
       <c r="X44" s="12">
         <f t="shared" si="118"/>
-        <v>724.66178949177436</v>
+        <v>2.6742643373861221</v>
       </c>
       <c r="Y44" s="12">
         <f t="shared" si="118"/>
-        <v>850.28349916417187</v>
+        <v>3.4717196612727883</v>
       </c>
       <c r="Z44" s="12">
         <f t="shared" si="118"/>
-        <v>968.73521981339138</v>
+        <v>4.3509828678076641</v>
       </c>
       <c r="AA44" s="12">
         <f t="shared" si="118"/>
-        <v>1106.6577727252825</v>
+        <v>5.0287680566012751</v>
       </c>
       <c r="AB44" s="52">
         <f t="shared" si="118"/>
-        <v>1251.6119825365665</v>
+        <v>6.0220685145407247</v>
       </c>
       <c r="AC44" s="53">
         <f t="shared" si="118"/>
-        <v>1412.0880394378496</v>
+        <v>7.2388856333770102</v>
       </c>
       <c r="AD44" s="53">
         <f t="shared" si="118"/>
-        <v>1532.6718270532706</v>
+        <v>8.5511336066406827</v>
       </c>
       <c r="AE44" s="53">
         <f t="shared" si="118"/>
-        <v>1617.3833825636102</v>
+        <v>10.581441679832166</v>
       </c>
       <c r="AF44" s="54">
         <f t="shared" si="118"/>
-        <v>1793.9836125091176</v>
+        <v>12.502551192632492</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
@@ -16471,126 +16471,126 @@
       </c>
       <c r="B45" s="17">
         <f>AF44-$AF$3</f>
-        <v>1773.8526615091175</v>
+        <v>-7.6283998073675079</v>
       </c>
       <c r="C45" s="18">
         <f>((AF44-AA44)-($AF$3-$AA$3))</f>
-        <v>676.29751478383514</v>
+        <v>-3.5545418639687822</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="5">
         <f>SUM(F45:AA45)</f>
-        <v>4434715.1882174611</v>
+        <v>75.361731437498563</v>
       </c>
       <c r="F45" s="3">
         <f>(F44-F$3)^2</f>
-        <v>99.28341695948447</v>
+        <v>3.3276614418702887E-7</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" ref="G45" si="119">(G44-G$3)^2</f>
-        <v>167.88922821409173</v>
+        <v>1.7473508365072164E-6</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" ref="H45" si="120">(H44-H$3)^2</f>
-        <v>279.69824254429381</v>
+        <v>3.9244548967967007E-6</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" ref="I45" si="121">(I44-I$3)^2</f>
-        <v>467.98097258100285</v>
+        <v>5.7954769277722413E-6</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" ref="J45" si="122">(J44-J$3)^2</f>
-        <v>783.69127311494674</v>
+        <v>9.1969381626489409E-6</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" ref="K45" si="123">(K44-K$3)^2</f>
-        <v>1345.2315033549642</v>
+        <v>1.5562076500116349E-5</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" ref="L45" si="124">(L44-L$3)^2</f>
-        <v>2181.392121270791</v>
+        <v>2.0151615499651427E-5</v>
       </c>
       <c r="M45" s="3">
         <f t="shared" ref="M45" si="125">(M44-M$3)^2</f>
-        <v>3664.4917259266231</v>
+        <v>2.0813998322757529E-5</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" ref="N45" si="126">(N44-N$3)^2</f>
-        <v>6124.6714187477019</v>
+        <v>1.7988826731800699E-5</v>
       </c>
       <c r="O45" s="3">
         <f t="shared" ref="O45" si="127">(O44-O$3)^2</f>
-        <v>10411.065899647687</v>
+        <v>1.7141481834613594E-5</v>
       </c>
       <c r="P45" s="3">
         <f t="shared" ref="P45" si="128">(P44-P$3)^2</f>
-        <v>17351.401841156468</v>
+        <v>8.5618810956289714E-7</v>
       </c>
       <c r="Q45" s="3">
         <f t="shared" ref="Q45" si="129">(Q44-Q$3)^2</f>
-        <v>28489.009279388905</v>
+        <v>4.4504634259760109E-5</v>
       </c>
       <c r="R45" s="3">
         <f t="shared" ref="R45" si="130">(R44-R$3)^2</f>
-        <v>47011.065237546558</v>
+        <v>3.8712723211034849E-6</v>
       </c>
       <c r="S45" s="3">
         <f t="shared" ref="S45" si="131">(S44-S$3)^2</f>
-        <v>72497.100444872369</v>
+        <v>5.1700575702028186E-3</v>
       </c>
       <c r="T45" s="3">
         <f t="shared" ref="T45" si="132">(T44-T$3)^2</f>
-        <v>104246.54551134424</v>
+        <v>0.15167867674428667</v>
       </c>
       <c r="U45" s="3">
         <f t="shared" ref="U45" si="133">(U44-U$3)^2</f>
-        <v>168850.20704351435</v>
+        <v>2.6449354493205042</v>
       </c>
       <c r="V45" s="3">
         <f t="shared" ref="V45" si="134">(V44-V$3)^2</f>
-        <v>251801.68535858043</v>
+        <v>8.6630988953015535</v>
       </c>
       <c r="W45" s="3">
         <f t="shared" ref="W45" si="135">(W44-W$3)^2</f>
-        <v>364337.79725060181</v>
+        <v>7.8865336696555994</v>
       </c>
       <c r="X45" s="3">
         <f t="shared" ref="X45" si="136">(X44-X$3)^2</f>
-        <v>516599.13814727002</v>
+        <v>10.492492195213764</v>
       </c>
       <c r="Y45" s="3">
         <f t="shared" ref="Y45" si="137">(Y44-Y$3)^2</f>
-        <v>710683.28550031269</v>
+        <v>14.375050173666622</v>
       </c>
       <c r="Z45" s="3">
         <f t="shared" ref="Z45" si="138">(Z44-Z$3)^2</f>
-        <v>922695.2566973553</v>
+        <v>14.546291889952588</v>
       </c>
       <c r="AA45" s="3">
         <f t="shared" ref="AA45" si="139">(AA44-AA$3)^2</f>
-        <v>1204627.3001031561</v>
+        <v>16.596318542992893</v>
       </c>
       <c r="AB45" s="46">
         <f t="shared" ref="AB45" si="140">(AB44-AB$3)^2</f>
-        <v>1540496.1860041867</v>
+        <v>19.559801935345284</v>
       </c>
       <c r="AC45" s="47">
         <f t="shared" ref="AC45" si="141">(AC44-AC$3)^2</f>
-        <v>1960771.849599771</v>
+        <v>20.91708854391528</v>
       </c>
       <c r="AD45" s="47">
         <f t="shared" ref="AD45" si="142">(AD44-AD$3)^2</f>
-        <v>2309446.4840026982</v>
+        <v>19.66374721053511</v>
       </c>
       <c r="AE45" s="47">
         <f t="shared" ref="AE45" si="143">(AE44-AE$3)^2</f>
-        <v>2566811.7942878581</v>
+        <v>21.852533252918409</v>
       </c>
       <c r="AF45" s="48">
         <f t="shared" ref="AF45" si="144">(AF44-AF$3)^2</f>
-        <v>3146553.2647429798</v>
+        <v>58.19248362104463</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16599,126 +16599,126 @@
       </c>
       <c r="B46" s="20">
         <f>(B45/$AF$3)*100</f>
-        <v>8811.5691181659404</v>
+        <v>-37.893886917550532</v>
       </c>
       <c r="C46" s="21">
         <f>((C45)/($AF$3-$AA$3))*100</f>
-        <v>6132.3683767374941</v>
+        <v>-32.231022063357607</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="5">
         <f>SUM(F46:AA46)</f>
-        <v>6659.1531176290264</v>
+        <v>22.798035510871408</v>
       </c>
       <c r="F46">
         <f>SQRT(F45)</f>
-        <v>9.9641064305578588</v>
+        <v>5.7685885984964198E-4</v>
       </c>
       <c r="G46">
         <f t="shared" ref="G46" si="145">SQRT(G45)</f>
-        <v>12.957207577795909</v>
+        <v>1.3218739866217265E-3</v>
       </c>
       <c r="H46">
         <f t="shared" ref="H46" si="146">SQRT(H45)</f>
-        <v>16.724181371424248</v>
+        <v>1.9810236992011732E-3</v>
       </c>
       <c r="I46">
         <f t="shared" ref="I46" si="147">SQRT(I45)</f>
-        <v>21.632867876936771</v>
+        <v>2.4073796808505802E-3</v>
       </c>
       <c r="J46">
         <f t="shared" ref="J46" si="148">SQRT(J45)</f>
-        <v>27.994486477071636</v>
+        <v>3.0326454066786214E-3</v>
       </c>
       <c r="K46">
         <f t="shared" ref="K46" si="149">SQRT(K45)</f>
-        <v>36.677397717872026</v>
+        <v>3.944879782720425E-3</v>
       </c>
       <c r="L46">
         <f t="shared" ref="L46" si="150">SQRT(L45)</f>
-        <v>46.705375721332025</v>
+        <v>4.4890550787054758E-3</v>
       </c>
       <c r="M46">
         <f t="shared" ref="M46" si="151">SQRT(M45)</f>
-        <v>60.535045435901203</v>
+        <v>4.5622361099309106E-3</v>
       </c>
       <c r="N46">
         <f t="shared" ref="N46" si="152">SQRT(N45)</f>
-        <v>78.260279955720208</v>
+        <v>4.2413237004266368E-3</v>
       </c>
       <c r="O46">
         <f t="shared" ref="O46" si="153">SQRT(O45)</f>
-        <v>102.03463088406644</v>
+        <v>4.1402272684737482E-3</v>
       </c>
       <c r="P46">
         <f t="shared" ref="P46" si="154">SQRT(P45)</f>
-        <v>131.72471993197203</v>
+        <v>9.2530433348325843E-4</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46" si="155">SQRT(Q45)</f>
-        <v>168.78687531733297</v>
+        <v>6.6711793754747825E-3</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46" si="156">SQRT(R45)</f>
-        <v>216.82035245231606</v>
+        <v>1.9675549092982095E-3</v>
       </c>
       <c r="S46">
         <f t="shared" ref="S46" si="157">SQRT(S45)</f>
-        <v>269.25285596418911</v>
+        <v>7.1903112381890802E-2</v>
       </c>
       <c r="T46">
         <f t="shared" ref="T46" si="158">SQRT(T45)</f>
-        <v>322.87233624351319</v>
+        <v>0.38945946739588533</v>
       </c>
       <c r="U46">
         <f t="shared" ref="U46" si="159">SQRT(U45)</f>
-        <v>410.91386815671524</v>
+        <v>1.6263257512935421</v>
       </c>
       <c r="V46">
         <f t="shared" ref="V46" si="160">SQRT(V45)</f>
-        <v>501.79845093282267</v>
+        <v>2.9433142705632971</v>
       </c>
       <c r="W46">
         <f t="shared" ref="W46" si="161">SQRT(W45)</f>
-        <v>603.60400698686703</v>
+        <v>2.8082972901129253</v>
       </c>
       <c r="X46">
         <f t="shared" ref="X46" si="162">SQRT(X45)</f>
-        <v>718.74831349177441</v>
+        <v>3.2392116626138781</v>
       </c>
       <c r="Y46">
         <f t="shared" ref="Y46" si="163">SQRT(Y45)</f>
-        <v>843.02033516417191</v>
+        <v>3.7914443387272114</v>
       </c>
       <c r="Z46">
         <f t="shared" ref="Z46" si="164">SQRT(Z45)</f>
-        <v>960.57027681339139</v>
+        <v>3.8139601321923369</v>
       </c>
       <c r="AA46">
         <f t="shared" ref="AA46" si="165">SQRT(AA45)</f>
-        <v>1097.5551467252824</v>
+        <v>4.0738579433987256</v>
       </c>
       <c r="AB46" s="43">
         <f t="shared" ref="AB46" si="166">SQRT(AB45)</f>
-        <v>1241.1672675365664</v>
+        <v>4.4226464854592757</v>
       </c>
       <c r="AC46" s="44">
         <f t="shared" ref="AC46" si="167">SQRT(AC45)</f>
-        <v>1400.2756334378496</v>
+        <v>4.5735203666229891</v>
       </c>
       <c r="AD46" s="44">
         <f t="shared" ref="AD46" si="168">SQRT(AD45)</f>
-        <v>1519.6863110532706</v>
+        <v>4.4343823933593178</v>
       </c>
       <c r="AE46" s="44">
         <f t="shared" ref="AE46" si="169">SQRT(AE45)</f>
-        <v>1602.1272715636103</v>
+        <v>4.6746693201678351</v>
       </c>
       <c r="AF46" s="45">
         <f t="shared" ref="AF46" si="170">SQRT(AF45)</f>
-        <v>1773.8526615091175</v>
+        <v>7.6283998073675079</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16839,107 +16839,107 @@
       </c>
       <c r="F53">
         <f>G54-F54</f>
-        <v>2.7694143446222554</v>
+        <v>1.0523186881371618E-5</v>
       </c>
       <c r="G53">
         <f t="shared" ref="G53" si="171">H54-G54</f>
-        <v>3.5637159723888505</v>
+        <v>2.0661624603571065E-5</v>
       </c>
       <c r="H53">
         <f t="shared" ref="H53" si="172">I54-H54</f>
-        <v>4.7244433367460577</v>
+        <v>3.0553097657176186E-5</v>
       </c>
       <c r="I53">
         <f t="shared" ref="I53" si="173">J54-I54</f>
-        <v>6.2210724060144749</v>
+        <v>4.8020282248785722E-5</v>
       </c>
       <c r="J53">
         <f t="shared" ref="J53" si="174">K54-J54</f>
-        <v>8.5828693826187283</v>
+        <v>2.5957007848332724E-5</v>
       </c>
       <c r="K53">
         <f t="shared" ref="K53" si="175">L54-K54</f>
-        <v>10.100968224663823</v>
+        <v>3.808130929131813E-4</v>
       </c>
       <c r="L53">
         <f t="shared" ref="L53" si="176">M54-L54</f>
-        <v>13.993762803046685</v>
+        <v>5.7687726058274413E-4</v>
       </c>
       <c r="M53">
         <f t="shared" ref="M53" si="177">N54-M54</f>
-        <v>18.061010086658733</v>
+        <v>9.9167935361336394E-4</v>
       </c>
       <c r="N53">
         <f t="shared" ref="N53" si="178">O54-N54</f>
-        <v>24.285207590657436</v>
+        <v>2.1469898163530513E-3</v>
       </c>
       <c r="O53">
         <f t="shared" ref="O53" si="179">P54-O54</f>
-        <v>30.404894757359813</v>
+        <v>6.4726445793200091E-3</v>
       </c>
       <c r="P53">
         <f t="shared" ref="P53" si="180">Q54-P54</f>
-        <v>37.930767304603194</v>
+        <v>1.1918061581610961E-2</v>
       </c>
       <c r="Q53">
         <f t="shared" ref="Q53" si="181">R54-Q54</f>
-        <v>48.975994987784304</v>
+        <v>1.9482577059123971E-2</v>
       </c>
       <c r="R53">
         <f t="shared" ref="R53" si="182">S54-R54</f>
-        <v>53.338186326371527</v>
+        <v>5.8606064626900392E-2</v>
       </c>
       <c r="S53">
         <f t="shared" ref="S53" si="183">T54-S54</f>
-        <v>54.451498269778028</v>
+        <v>0.12933187638653879</v>
       </c>
       <c r="T53">
         <f t="shared" ref="T53" si="184">U54-T54</f>
-        <v>89.539002986442654</v>
+        <v>0.22186722590423907</v>
       </c>
       <c r="U53">
         <f t="shared" ref="U53" si="185">V54-U54</f>
-        <v>92.17168769662436</v>
+        <v>0.62244911451558393</v>
       </c>
       <c r="V53">
         <f t="shared" ref="V53" si="186">W54-V54</f>
-        <v>101.30213359705482</v>
+        <v>0.85073421572713315</v>
       </c>
       <c r="W53">
         <f t="shared" ref="W53" si="187">X54-W54</f>
-        <v>114.87923117729906</v>
+        <v>0.74321661783748283</v>
       </c>
       <c r="X53">
         <f t="shared" ref="X53" si="188">Y54-X54</f>
-        <v>124.62409563117058</v>
+        <v>0.79297021759576092</v>
       </c>
       <c r="Y53">
         <f t="shared" ref="Y53" si="189">Z54-Y54</f>
-        <v>118.93626591892109</v>
+        <v>0.88060009599406097</v>
       </c>
       <c r="Z53">
         <f t="shared" ref="Z53" si="190">AA54-Z54</f>
-        <v>141.06233109173127</v>
+        <v>0.69196392461097833</v>
       </c>
       <c r="AA53">
         <f t="shared" ref="AA53" si="191">AB54-AA54</f>
-        <v>152.18502798923919</v>
+        <v>1.0285002934217573</v>
       </c>
       <c r="AB53" s="43">
         <f t="shared" ref="AB53" si="192">AC54-AB54</f>
-        <v>173.39012072697619</v>
+        <v>1.2857749193363883</v>
       </c>
       <c r="AC53" s="44">
         <f t="shared" ref="AC53" si="193">AD54-AC54</f>
-        <v>139.41789273282188</v>
+        <v>1.4271405669137867</v>
       </c>
       <c r="AD53" s="44">
         <f t="shared" ref="AD53" si="194">AE54-AD54</f>
-        <v>109.07052973265809</v>
+        <v>2.2286996835393502</v>
       </c>
       <c r="AE53" s="44">
         <f t="shared" ref="AE53" si="195">AF54-AE54</f>
-        <v>212.45443043181945</v>
+        <v>2.1986567662454739</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
@@ -16955,111 +16955,111 @@
       </c>
       <c r="F54" s="12">
         <f>$E$3+($C53/($C53+E5))*E4*(1/(1+EXP(-$A53*(F52-$B53))))</f>
-        <v>8.3121205600049102</v>
+        <v>2.0678882557509824E-3</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" ref="G54:AF54" si="196">$E$3+($C53/($C53+F5))*F4*(1/(1+EXP(-$A53*(G52-$B53))))</f>
-        <v>11.081534904627166</v>
+        <v>2.078411442632354E-3</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="196"/>
-        <v>14.645250877016016</v>
+        <v>2.0990730672359251E-3</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="196"/>
-        <v>19.369694213762074</v>
+        <v>2.1296261648931013E-3</v>
       </c>
       <c r="J54" s="12">
         <f t="shared" si="196"/>
-        <v>25.590766619776549</v>
+        <v>2.177646447141887E-3</v>
       </c>
       <c r="K54" s="12">
         <f t="shared" si="196"/>
-        <v>34.173636002395277</v>
+        <v>2.2036034549902197E-3</v>
       </c>
       <c r="L54" s="12">
         <f t="shared" si="196"/>
-        <v>44.2746042270591</v>
+        <v>2.584416547903401E-3</v>
       </c>
       <c r="M54" s="12">
         <f t="shared" si="196"/>
-        <v>58.268367030105786</v>
+        <v>3.1612938084861451E-3</v>
       </c>
       <c r="N54" s="12">
         <f t="shared" si="196"/>
-        <v>76.329377116764519</v>
+        <v>4.1529731620995091E-3</v>
       </c>
       <c r="O54" s="12">
         <f t="shared" si="196"/>
-        <v>100.61458470742195</v>
+        <v>6.2999629784525604E-3</v>
       </c>
       <c r="P54" s="12">
         <f t="shared" si="196"/>
-        <v>131.01947946478177</v>
+        <v>1.277260755777257E-2</v>
       </c>
       <c r="Q54" s="12">
         <f t="shared" si="196"/>
-        <v>168.95024676938496</v>
+        <v>2.4690669139383531E-2</v>
       </c>
       <c r="R54" s="12">
         <f t="shared" si="196"/>
-        <v>217.92624175716927</v>
+        <v>4.4173246198507501E-2</v>
       </c>
       <c r="S54" s="12">
         <f t="shared" si="196"/>
-        <v>271.26442808354079</v>
+        <v>0.10277931082540789</v>
       </c>
       <c r="T54" s="12">
         <f t="shared" si="196"/>
-        <v>325.71592635331882</v>
+        <v>0.23211118721194668</v>
       </c>
       <c r="U54" s="12">
         <f t="shared" si="196"/>
-        <v>415.25492933976147</v>
+        <v>0.45397841311618575</v>
       </c>
       <c r="V54" s="12">
         <f t="shared" si="196"/>
-        <v>507.42661703638584</v>
+        <v>1.0764275276317696</v>
       </c>
       <c r="W54" s="12">
         <f t="shared" si="196"/>
-        <v>608.72875063344065</v>
+        <v>1.9271617433589028</v>
       </c>
       <c r="X54" s="12">
         <f t="shared" si="196"/>
-        <v>723.60798181073972</v>
+        <v>2.6703783611963856</v>
       </c>
       <c r="Y54" s="12">
         <f t="shared" si="196"/>
-        <v>848.23207744191029</v>
+        <v>3.4633485787921465</v>
       </c>
       <c r="Z54" s="12">
         <f t="shared" si="196"/>
-        <v>967.16834336083139</v>
+        <v>4.3439486747862075</v>
       </c>
       <c r="AA54" s="12">
         <f t="shared" si="196"/>
-        <v>1108.2306744525627</v>
+        <v>5.0359125993971858</v>
       </c>
       <c r="AB54" s="52">
         <f t="shared" si="196"/>
-        <v>1260.4157024418018</v>
+        <v>6.0644128928189431</v>
       </c>
       <c r="AC54" s="53">
         <f t="shared" si="196"/>
-        <v>1433.805823168778</v>
+        <v>7.3501878121553315</v>
       </c>
       <c r="AD54" s="53">
         <f t="shared" si="196"/>
-        <v>1573.2237159015999</v>
+        <v>8.7773283790691181</v>
       </c>
       <c r="AE54" s="53">
         <f t="shared" si="196"/>
-        <v>1682.294245634258</v>
+        <v>11.006028062608468</v>
       </c>
       <c r="AF54" s="54">
         <f t="shared" si="196"/>
-        <v>1894.7486760660775</v>
+        <v>13.204684828853942</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -17068,126 +17068,126 @@
       </c>
       <c r="B55" s="17">
         <f>AF54-$AF$3</f>
-        <v>1874.6177250660774</v>
+        <v>-6.9262661711460574</v>
       </c>
       <c r="C55" s="18">
         <f>((AF54-AA54)-($AF$3-$AA$3))</f>
-        <v>775.4896766135148</v>
+        <v>-2.8595527705432424</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="5">
         <f>SUM(F55:AA55)</f>
-        <v>4435285.8873146176</v>
+        <v>75.40967885487558</v>
       </c>
       <c r="F55" s="3">
         <f>(F54-F$3)^2</f>
-        <v>69.047296001906048</v>
+        <v>3.3920343983918307E-7</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" ref="G55" si="197">(G54-G$3)^2</f>
-        <v>122.72492230253026</v>
+        <v>1.7646161593452962E-6</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" ref="H55" si="198">(H54-H$3)^2</f>
-        <v>214.36363575014929</v>
+        <v>3.957819520807076E-6</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" ref="I55" si="199">(I54-I$3)^2</f>
-        <v>375.00890724553</v>
+        <v>5.8461138824945444E-6</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" ref="J55" si="200">(J54-J$3)^2</f>
-        <v>654.62002952671673</v>
+        <v>9.2757010011819576E-6</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" ref="K55" si="201">(K54-K$3)^2</f>
-        <v>1167.4163822067815</v>
+        <v>1.5657030267910333E-5</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" ref="L55" si="202">(L54-L$3)^2</f>
-        <v>1959.6116250469279</v>
+        <v>2.04216633411681E-5</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" ref="M55" si="203">(M54-M$3)^2</f>
-        <v>3394.2974809116026</v>
+        <v>2.1215293036263978E-5</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" ref="N55" si="204">(N54-N$3)^2</f>
-        <v>5824.8842236884639</v>
+        <v>1.844711809768268E-5</v>
       </c>
       <c r="O55" s="3">
         <f t="shared" ref="O55" si="205">(O54-O$3)^2</f>
-        <v>10121.181706899924</v>
+        <v>1.7646695616241837E-5</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" ref="P55" si="206">(P54-P$3)^2</f>
-        <v>17162.984292029436</v>
+        <v>7.5092200093276079E-7</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" ref="Q55" si="207">(Q54-Q$3)^2</f>
-        <v>28538.103998552375</v>
+        <v>4.4765053532699177E-5</v>
       </c>
       <c r="R55" s="3">
         <f t="shared" ref="R55" si="208">(R54-R$3)^2</f>
-        <v>47473.542806096579</v>
+        <v>4.7229990393272952E-6</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" ref="S55" si="209">(S54-S$3)^2</f>
-        <v>73490.020198517421</v>
+        <v>5.0723865665038594E-3</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" ref="T55" si="210">(T54-T$3)^2</f>
-        <v>105687.36133152249</v>
+        <v>0.15045773108612548</v>
       </c>
       <c r="U55" s="3">
         <f t="shared" ref="U55" si="211">(U54-U$3)^2</f>
-        <v>170715.30632892306</v>
+        <v>2.6369297010809927</v>
       </c>
       <c r="V55" s="3">
         <f t="shared" ref="V55" si="212">(V54-V$3)^2</f>
-        <v>253421.91810087697</v>
+        <v>8.6430206672328875</v>
       </c>
       <c r="W55" s="3">
         <f t="shared" ref="W55" si="213">(W54-W$3)^2</f>
-        <v>364809.38820315403</v>
+        <v>7.87959851265901</v>
       </c>
       <c r="X55" s="3">
         <f t="shared" ref="X55" si="214">(X54-X$3)^2</f>
-        <v>515085.40367092198</v>
+        <v>10.51768229481358</v>
       </c>
       <c r="Y55" s="3">
         <f t="shared" ref="Y55" si="215">(Y54-Y$3)^2</f>
-        <v>707228.71337566723</v>
+        <v>14.438597235249015</v>
       </c>
       <c r="Z55" s="3">
         <f t="shared" ref="Z55" si="216">(Z54-Z$3)^2</f>
-        <v>919687.5219036371</v>
+        <v>14.599997633316013</v>
       </c>
       <c r="AA55" s="3">
         <f t="shared" ref="AA55" si="217">(AA54-AA$3)^2</f>
-        <v>1208082.4668951386</v>
+        <v>16.538157882642512</v>
       </c>
       <c r="AB55" s="46">
         <f t="shared" ref="AB55" si="218">(AB54-AB$3)^2</f>
-        <v>1562427.469446233</v>
+        <v>19.187046550174809</v>
       </c>
       <c r="AC55" s="47">
         <f t="shared" ref="AC55" si="219">(AC54-AC$3)^2</f>
-        <v>2022065.2784713383</v>
+        <v>19.911391155931753</v>
       </c>
       <c r="AD55" s="47">
         <f t="shared" ref="AD55" si="220">(AD54-AD$3)^2</f>
-        <v>2434343.2404321851</v>
+        <v>17.70884305295592</v>
       </c>
       <c r="AE55" s="47">
         <f t="shared" ref="AE55" si="221">(AE54-AE$3)^2</f>
-        <v>2779016.1423248667</v>
+        <v>18.063204974706636</v>
       </c>
       <c r="AF55" s="48">
         <f t="shared" ref="AF55" si="222">(AF54-AF$3)^2</f>
-        <v>3514191.6151319151</v>
+        <v>47.973163073562269</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17196,126 +17196,126 @@
       </c>
       <c r="B56" s="20">
         <f>(B55/$AF$3)*100</f>
-        <v>9312.1170731878374</v>
+        <v>-34.406055487125556</v>
       </c>
       <c r="C56" s="21">
         <f>((C55)/($AF$3-$AA$3))*100</f>
-        <v>7031.7992679170675</v>
+        <v>-25.929166673481628</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="5">
         <f>SUM(F56:AA56)</f>
-        <v>6643.9872273687606</v>
+        <v>22.801228525249943</v>
       </c>
       <c r="F56">
         <f>SQRT(F55)</f>
-        <v>8.3094702600049093</v>
+        <v>5.8241174424901758E-4</v>
       </c>
       <c r="G56">
         <f t="shared" ref="G56" si="223">SQRT(G55)</f>
-        <v>11.078128104627165</v>
+        <v>1.3283885573676462E-3</v>
       </c>
       <c r="H56">
         <f t="shared" ref="H56" si="224">SQRT(H55)</f>
-        <v>14.641162377016016</v>
+        <v>1.989426932764075E-3</v>
       </c>
       <c r="I56">
         <f t="shared" ref="I56" si="225">SQRT(I55)</f>
-        <v>19.365146713762073</v>
+        <v>2.4178738351068991E-3</v>
       </c>
       <c r="J56">
         <f t="shared" ref="J56" si="226">SQRT(J55)</f>
-        <v>25.585543369776548</v>
+        <v>3.0456035528581126E-3</v>
       </c>
       <c r="K56">
         <f t="shared" ref="K56" si="227">SQRT(K55)</f>
-        <v>34.167475502395277</v>
+        <v>3.95689654500978E-3</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56" si="228">SQRT(L55)</f>
-        <v>44.267500777059098</v>
+        <v>4.5190334520965984E-3</v>
       </c>
       <c r="M56">
         <f t="shared" ref="M56" si="229">SQRT(M55)</f>
-        <v>58.260599730105788</v>
+        <v>4.6060061915138562E-3</v>
       </c>
       <c r="N56">
         <f t="shared" ref="N56" si="230">SQRT(N55)</f>
-        <v>76.320929132764519</v>
+        <v>4.2950108379004913E-3</v>
       </c>
       <c r="O56">
         <f t="shared" ref="O56" si="231">SQRT(O55)</f>
-        <v>100.60408394742196</v>
+        <v>4.2007970215474392E-3</v>
       </c>
       <c r="P56">
         <f t="shared" ref="P56" si="232">SQRT(P55)</f>
-        <v>131.00757341478177</v>
+        <v>8.6655755777256989E-4</v>
       </c>
       <c r="Q56">
         <f t="shared" ref="Q56" si="233">SQRT(Q55)</f>
-        <v>168.93224676938496</v>
+        <v>6.6906691393835323E-3</v>
       </c>
       <c r="R56">
         <f t="shared" ref="R56" si="234">SQRT(R55)</f>
-        <v>217.88424175716926</v>
+        <v>2.1732461985074988E-3</v>
       </c>
       <c r="S56">
         <f t="shared" ref="S56" si="235">SQRT(S55)</f>
-        <v>271.09042808354081</v>
+        <v>7.1220689174592094E-2</v>
       </c>
       <c r="T56">
         <f t="shared" ref="T56" si="236">SQRT(T55)</f>
-        <v>325.09592635331882</v>
+        <v>0.38788881278805332</v>
       </c>
       <c r="U56">
         <f t="shared" ref="U56" si="237">SQRT(U55)</f>
-        <v>413.1770883397615</v>
+        <v>1.6238625868838141</v>
       </c>
       <c r="V56">
         <f t="shared" ref="V56" si="238">SQRT(V55)</f>
-        <v>503.41028803638585</v>
+        <v>2.9399014723682302</v>
       </c>
       <c r="W56">
         <f t="shared" ref="W56" si="239">SQRT(W55)</f>
-        <v>603.99452663344061</v>
+        <v>2.8070622566410974</v>
       </c>
       <c r="X56">
         <f t="shared" ref="X56" si="240">SQRT(X55)</f>
-        <v>717.69450581073977</v>
+        <v>3.2430976388036146</v>
       </c>
       <c r="Y56">
         <f t="shared" ref="Y56" si="241">SQRT(Y55)</f>
-        <v>840.96891344191033</v>
+        <v>3.7998154212078532</v>
       </c>
       <c r="Z56">
         <f t="shared" ref="Z56" si="242">SQRT(Z55)</f>
-        <v>959.00340036083139</v>
+        <v>3.8209943252137935</v>
       </c>
       <c r="AA56">
         <f t="shared" ref="AA56" si="243">SQRT(AA55)</f>
-        <v>1099.1280484525626</v>
+        <v>4.0667134006028149</v>
       </c>
       <c r="AB56" s="43">
         <f t="shared" ref="AB56" si="244">SQRT(AB55)</f>
-        <v>1249.9709874418018</v>
+        <v>4.3803021071810573</v>
       </c>
       <c r="AC56" s="44">
         <f t="shared" ref="AC56" si="245">SQRT(AC55)</f>
-        <v>1421.993417168778</v>
+        <v>4.4622181878446678</v>
       </c>
       <c r="AD56" s="44">
         <f t="shared" ref="AD56" si="246">SQRT(AD55)</f>
-        <v>1560.2381999016</v>
+        <v>4.2081876209308824</v>
       </c>
       <c r="AE56" s="44">
         <f t="shared" ref="AE56" si="247">SQRT(AE55)</f>
-        <v>1667.0381346342581</v>
+        <v>4.2500829373915323</v>
       </c>
       <c r="AF56" s="45">
         <f t="shared" ref="AF56" si="248">SQRT(AF55)</f>
-        <v>1874.6177250660774</v>
+        <v>6.9262661711460574</v>
       </c>
     </row>
     <row r="60" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18033,107 +18033,107 @@
       </c>
       <c r="F72">
         <f>G73-F73</f>
-        <v>2.1258961499737858</v>
+        <v>7.7726293591772605E-6</v>
       </c>
       <c r="G72">
         <f t="shared" ref="G72" si="327">H73-G73</f>
-        <v>3.0683380132165992</v>
+        <v>1.5641552969828179E-5</v>
       </c>
       <c r="H72">
         <f t="shared" ref="H72" si="328">I73-H73</f>
-        <v>4.4057930511737169</v>
+        <v>2.5623352499630839E-5</v>
       </c>
       <c r="I72">
         <f t="shared" ref="I72" si="329">J73-I73</f>
-        <v>6.1698719826129835</v>
+        <v>4.312975223572579E-5</v>
       </c>
       <c r="J72">
         <f t="shared" ref="J72" si="330">K73-J73</f>
-        <v>8.8049099975777416</v>
+        <v>3.068245528828166E-5</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72" si="331">L73-K73</f>
-        <v>10.892760898573258</v>
+        <v>3.4572072541146862E-4</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72" si="332">M73-L73</f>
-        <v>15.107742408165805</v>
+        <v>5.6234115573693686E-4</v>
       </c>
       <c r="M72">
         <f t="shared" ref="M72" si="333">N73-M73</f>
-        <v>19.579937239398944</v>
+        <v>9.9943206281981941E-4</v>
       </c>
       <c r="N72">
         <f t="shared" ref="N72" si="334">O73-N73</f>
-        <v>26.092256544702252</v>
+        <v>2.1861958371132157E-3</v>
       </c>
       <c r="O72">
         <f t="shared" ref="O72" si="335">P73-O73</f>
-        <v>32.355136333687767</v>
+        <v>6.6031911609912538E-3</v>
       </c>
       <c r="P72">
         <f t="shared" ref="P72" si="336">Q73-P73</f>
-        <v>39.728572622539531</v>
+        <v>1.2222305473328282E-2</v>
       </c>
       <c r="Q72">
         <f t="shared" ref="Q72" si="337">R73-Q73</f>
-        <v>50.329108745936651</v>
+        <v>1.9922586718918094E-2</v>
       </c>
       <c r="R72">
         <f t="shared" ref="R72" si="338">S73-R73</f>
-        <v>53.762618180290332</v>
+        <v>5.9540455341911477E-2</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72" si="339">T73-S73</f>
-        <v>53.723981452839041</v>
+        <v>0.1304217360648065</v>
       </c>
       <c r="T72">
         <f t="shared" ref="T72" si="340">U73-T73</f>
-        <v>88.016552996291637</v>
+        <v>0.2217611233463605</v>
       </c>
       <c r="U72">
         <f t="shared" ref="U72" si="341">V73-U73</f>
-        <v>89.648540714488377</v>
+        <v>0.6197178488869316</v>
       </c>
       <c r="V72">
         <f t="shared" ref="V72" si="342">W73-V73</f>
-        <v>98.494148461441057</v>
+        <v>0.84186887609593053</v>
       </c>
       <c r="W72">
         <f t="shared" ref="W72" si="343">X73-W73</f>
-        <v>112.73904534925236</v>
+        <v>0.73385786111152518</v>
       </c>
       <c r="X72">
         <f t="shared" ref="X72" si="344">Y73-X73</f>
-        <v>124.46495323320266</v>
+        <v>0.79038150083279923</v>
       </c>
       <c r="Y72">
         <f t="shared" ref="Y72" si="345">Z73-Y73</f>
-        <v>122.34270990565051</v>
+        <v>0.89381127086325662</v>
       </c>
       <c r="Z72">
         <f t="shared" ref="Z72" si="346">AA73-Z73</f>
-        <v>149.55674063584695</v>
+        <v>0.73045850153450242</v>
       </c>
       <c r="AA72">
         <f t="shared" ref="AA72" si="347">AB73-AA73</f>
-        <v>167.62150794257354</v>
+        <v>1.1045686243974435</v>
       </c>
       <c r="AB72" s="43">
         <f t="shared" ref="AB72" si="348">AC73-AB73</f>
-        <v>197.90882814580596</v>
+        <v>1.4184409552214117</v>
       </c>
       <c r="AC72" s="44">
         <f t="shared" ref="AC72" si="349">AD73-AC73</f>
-        <v>172.52888043225471</v>
+        <v>1.6330132742496772</v>
       </c>
       <c r="AD72" s="44">
         <f t="shared" ref="AD72" si="350">AE73-AD73</f>
-        <v>149.93168854893634</v>
+        <v>2.5729067206743679</v>
       </c>
       <c r="AE72" s="44">
         <f t="shared" ref="AE72" si="351">AF73-AE73</f>
-        <v>272.11666980485029</v>
+        <v>2.6659337512972705</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -18149,111 +18149,111 @@
       </c>
       <c r="F73">
         <f>$E$3+(E4*$C72)*(EXP(-EXP($A72-$B72*F71)))</f>
-        <v>3.6289718817343055</v>
+        <v>2.0521718198973924E-3</v>
       </c>
       <c r="G73">
         <f t="shared" ref="G73:AF73" si="352">$E$3+(F4*$C72)*(EXP(-EXP($A72-$B72*G71)))</f>
-        <v>5.7548680317080914</v>
+        <v>2.0599444492565696E-3</v>
       </c>
       <c r="H73">
         <f t="shared" si="352"/>
-        <v>8.8232060449246905</v>
+        <v>2.0755860022263978E-3</v>
       </c>
       <c r="I73">
         <f t="shared" si="352"/>
-        <v>13.228999096098407</v>
+        <v>2.1012093547260286E-3</v>
       </c>
       <c r="J73">
         <f t="shared" si="352"/>
-        <v>19.398871078711391</v>
+        <v>2.1443391069617544E-3</v>
       </c>
       <c r="K73">
         <f t="shared" si="352"/>
-        <v>28.203781076289133</v>
+        <v>2.1750215622500361E-3</v>
       </c>
       <c r="L73">
         <f t="shared" si="352"/>
-        <v>39.09654197486239</v>
+        <v>2.5207422876615047E-3</v>
       </c>
       <c r="M73">
         <f t="shared" si="352"/>
-        <v>54.204284383028195</v>
+        <v>3.0830834433984416E-3</v>
       </c>
       <c r="N73">
         <f t="shared" si="352"/>
-        <v>73.78422162242714</v>
+        <v>4.082515506218261E-3</v>
       </c>
       <c r="O73">
         <f t="shared" si="352"/>
-        <v>99.876478167129392</v>
+        <v>6.2687113433314767E-3</v>
       </c>
       <c r="P73">
         <f t="shared" si="352"/>
-        <v>132.23161450081716</v>
+        <v>1.287190250432273E-2</v>
       </c>
       <c r="Q73">
         <f t="shared" si="352"/>
-        <v>171.96018712335669</v>
+        <v>2.5094207977651013E-2</v>
       </c>
       <c r="R73">
         <f t="shared" si="352"/>
-        <v>222.28929586929334</v>
+        <v>4.5016794696569107E-2</v>
       </c>
       <c r="S73">
         <f t="shared" si="352"/>
-        <v>276.05191404958367</v>
+        <v>0.10455725003848058</v>
       </c>
       <c r="T73">
         <f t="shared" si="352"/>
-        <v>329.77589550242271</v>
+        <v>0.2349789861032871</v>
       </c>
       <c r="U73">
         <f t="shared" si="352"/>
-        <v>417.79244849871435</v>
+        <v>0.4567401094496476</v>
       </c>
       <c r="V73">
         <f t="shared" si="352"/>
-        <v>507.44098921320273</v>
+        <v>1.0764579583365792</v>
       </c>
       <c r="W73">
         <f t="shared" si="352"/>
-        <v>605.93513767464378</v>
+        <v>1.9183268344325097</v>
       </c>
       <c r="X73">
         <f t="shared" si="352"/>
-        <v>718.67418302389615</v>
+        <v>2.6521846955440349</v>
       </c>
       <c r="Y73">
         <f t="shared" si="352"/>
-        <v>843.13913625709881</v>
+        <v>3.4425661963768341</v>
       </c>
       <c r="Z73">
         <f t="shared" si="352"/>
-        <v>965.48184616274932</v>
+        <v>4.3363774672400908</v>
       </c>
       <c r="AA73">
         <f t="shared" si="352"/>
-        <v>1115.0385867985963</v>
+        <v>5.0668359687745932</v>
       </c>
       <c r="AB73" s="43">
         <f t="shared" si="352"/>
-        <v>1282.6600947411698</v>
+        <v>6.1714045931720367</v>
       </c>
       <c r="AC73" s="44">
         <f t="shared" si="352"/>
-        <v>1480.5689228869758</v>
+        <v>7.5898455483934484</v>
       </c>
       <c r="AD73" s="44">
         <f t="shared" si="352"/>
-        <v>1653.0978033192305</v>
+        <v>9.2228588226431256</v>
       </c>
       <c r="AE73" s="44">
         <f t="shared" si="352"/>
-        <v>1803.0294918681668</v>
+        <v>11.795765543317493</v>
       </c>
       <c r="AF73" s="45">
         <f t="shared" si="352"/>
-        <v>2075.1461616730171</v>
+        <v>14.461699294614764</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
@@ -18262,126 +18262,126 @@
       </c>
       <c r="B74" s="17">
         <f>AF73-$AF$3</f>
-        <v>2055.015210673017</v>
+        <v>-5.6692517053852356</v>
       </c>
       <c r="C74" s="18">
         <f>((AF73-AA73)-($AF$3-$AA$3))</f>
-        <v>949.07924987442084</v>
+        <v>-1.6334616741598289</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="5">
         <f>SUM(F74:AA74)</f>
-        <v>4436207.7222241685</v>
+        <v>75.531831771037815</v>
       </c>
       <c r="F74" s="3">
         <f>(F73-F$3)^2</f>
-        <v>13.150208214151995</v>
+        <v>3.5775731983285739E-7</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" ref="G74" si="353">(G73-G$3)^2</f>
-        <v>33.079306299841157</v>
+        <v>1.8140198745683896E-6</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" ref="H74" si="354">(H73-H$3)^2</f>
-        <v>77.776834271198496</v>
+        <v>4.0518227624329059E-6</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" ref="I74" si="355">(I73-I$3)^2</f>
-        <v>174.88612001754973</v>
+        <v>5.9843379211549446E-6</v>
       </c>
       <c r="J74" s="3">
         <f t="shared" ref="J74" si="356">(J73-J$3)^2</f>
-        <v>376.11357610408203</v>
+        <v>9.4796922872695637E-6</v>
       </c>
       <c r="K74" s="3">
         <f t="shared" ref="K74" si="357">(K73-K$3)^2</f>
-        <v>795.10580616436425</v>
+        <v>1.5884038377769891E-5</v>
       </c>
       <c r="L74" s="3">
         <f t="shared" ref="L74" si="358">(L73-L$3)^2</f>
-        <v>1527.9842041889958</v>
+        <v>2.1001209976726728E-5</v>
       </c>
       <c r="M74" s="3">
         <f t="shared" ref="M74" si="359">(M73-M$3)^2</f>
-        <v>2937.2624639309674</v>
+        <v>2.1941884749140174E-5</v>
       </c>
       <c r="N74" s="3">
         <f t="shared" ref="N74" si="360">(N73-N$3)^2</f>
-        <v>5442.8647759484411</v>
+        <v>1.9057315170201007E-5</v>
       </c>
       <c r="O74" s="3">
         <f t="shared" ref="O74" si="361">(O73-O$3)^2</f>
-        <v>9973.2134434812779</v>
+        <v>1.7910235832409851E-5</v>
       </c>
       <c r="P74" s="3">
         <f t="shared" ref="P74" si="362">(P73-P$3)^2</f>
-        <v>17482.051302819091</v>
+        <v>9.3287106010649072E-7</v>
       </c>
       <c r="Q74" s="3">
         <f t="shared" ref="Q74" si="363">(Q73-Q$3)^2</f>
-        <v>29564.115712763407</v>
+        <v>5.0327786830167286E-5</v>
       </c>
       <c r="R74" s="3">
         <f t="shared" ref="R74" si="364">(R73-R$3)^2</f>
-        <v>49393.86052121321</v>
+        <v>9.1010502412474736E-6</v>
       </c>
       <c r="S74" s="3">
         <f t="shared" ref="S74" si="365">(S73-S$3)^2</f>
-        <v>76108.623460349481</v>
+        <v>4.8222955222181028E-3</v>
       </c>
       <c r="T74" s="3">
         <f t="shared" ref="T74" si="366">(T73-T$3)^2</f>
-        <v>108343.60354400182</v>
+        <v>0.14824118114205279</v>
       </c>
       <c r="U74" s="3">
         <f t="shared" ref="U74" si="367">(U73-U$3)^2</f>
-        <v>172818.63488781016</v>
+        <v>2.6279680973431456</v>
       </c>
       <c r="V74" s="3">
         <f t="shared" ref="V74" si="368">(V73-V$3)^2</f>
-        <v>253436.38851077863</v>
+        <v>8.6428417416111643</v>
       </c>
       <c r="W74" s="3">
         <f t="shared" ref="W74" si="369">(W73-W$3)^2</f>
-        <v>361442.53860322642</v>
+        <v>7.9292768470510273</v>
       </c>
       <c r="X74" s="3">
         <f t="shared" ref="X74" si="370">(X73-X$3)^2</f>
-        <v>508027.8254772044</v>
+        <v>10.636020972520091</v>
       </c>
       <c r="Y74" s="3">
         <f t="shared" ref="Y74" si="371">(Y73-Y$3)^2</f>
-        <v>698688.64099675033</v>
+        <v>14.596967577050156</v>
       </c>
       <c r="Z74" s="3">
         <f t="shared" ref="Z74" si="372">(Z73-Z$3)^2</f>
-        <v>916455.65308111673</v>
+        <v>14.657914038637175</v>
       </c>
       <c r="AA74" s="3">
         <f t="shared" ref="AA74" si="373">(AA73-AA$3)^2</f>
-        <v>1223094.3493875139</v>
+        <v>16.287601176138377</v>
       </c>
       <c r="AB74" s="46">
         <f t="shared" ref="AB74" si="374">(AB73-AB$3)^2</f>
-        <v>1618531.9724499688</v>
+        <v>18.261181833104178</v>
       </c>
       <c r="AC74" s="47">
         <f t="shared" ref="AC74" si="375">(AC73-AC$3)^2</f>
-        <v>2157245.7058979613</v>
+        <v>17.830016767471719</v>
       </c>
       <c r="AD74" s="47">
         <f t="shared" ref="AD74" si="376">(AD73-AD$3)^2</f>
-        <v>2689968.3150155181</v>
+        <v>14.157589034315205</v>
       </c>
       <c r="AE74" s="47">
         <f t="shared" ref="AE74" si="377">(AE73-AE$3)^2</f>
-        <v>3196133.6613407959</v>
+        <v>11.973990679583268</v>
       </c>
       <c r="AF74" s="48">
         <f t="shared" ref="AF74" si="378">(AF73-AF$3)^2</f>
-        <v>4223087.5160974646</v>
+        <v>32.1404148990134</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18390,126 +18390,126 @@
       </c>
       <c r="B75" s="20">
         <f>(B74/$AF$3)*100</f>
-        <v>10208.237110472412</v>
+        <v>-28.161867292733639</v>
       </c>
       <c r="C75" s="21">
         <f>((C74)/($AF$3-$AA$3))*100</f>
-        <v>8605.8331602888102</v>
+        <v>-14.811511940025607</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="5">
         <f>SUM(F75:AA75)</f>
-        <v>6609.6130526372881</v>
+        <v>22.819987408006558</v>
       </c>
       <c r="F75">
         <f>SQRT(F74)</f>
-        <v>3.6263215817343055</v>
+        <v>5.9812818010260759E-4</v>
       </c>
       <c r="G75">
         <f t="shared" ref="G75" si="379">SQRT(G74)</f>
-        <v>5.7514612317080918</v>
+        <v>1.3468555507434306E-3</v>
       </c>
       <c r="H75">
         <f t="shared" ref="H75" si="380">SQRT(H74)</f>
-        <v>8.8191175449246906</v>
+        <v>2.0129139977736023E-3</v>
       </c>
       <c r="I75">
         <f t="shared" ref="I75" si="381">SQRT(I74)</f>
-        <v>13.224451596098408</v>
+        <v>2.4462906452739717E-3</v>
       </c>
       <c r="J75">
         <f t="shared" ref="J75" si="382">SQRT(J74)</f>
-        <v>19.393647828711391</v>
+        <v>3.0789108930382452E-3</v>
       </c>
       <c r="K75">
         <f t="shared" ref="K75" si="383">SQRT(K74)</f>
-        <v>28.197620576289133</v>
+        <v>3.9854784377499636E-3</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75" si="384">SQRT(L74)</f>
-        <v>39.089438524862388</v>
+        <v>4.5827077123384956E-3</v>
       </c>
       <c r="M75">
         <f t="shared" ref="M75" si="385">SQRT(M74)</f>
-        <v>54.196517083028198</v>
+        <v>4.6842165566015597E-3</v>
       </c>
       <c r="N75">
         <f t="shared" ref="N75" si="386">SQRT(N74)</f>
-        <v>73.77577363842714</v>
+        <v>4.3654684937817394E-3</v>
       </c>
       <c r="O75">
         <f t="shared" ref="O75" si="387">SQRT(O74)</f>
-        <v>99.865977407129392</v>
+        <v>4.2320486566685229E-3</v>
       </c>
       <c r="P75">
         <f t="shared" ref="P75" si="388">SQRT(P74)</f>
-        <v>132.21970845081717</v>
+        <v>9.6585250432273083E-4</v>
       </c>
       <c r="Q75">
         <f t="shared" ref="Q75" si="389">SQRT(Q74)</f>
-        <v>171.94218712335669</v>
+        <v>7.0942079776510139E-3</v>
       </c>
       <c r="R75">
         <f t="shared" ref="R75" si="390">SQRT(R74)</f>
-        <v>222.24729586929334</v>
+        <v>3.0167946965691042E-3</v>
       </c>
       <c r="S75">
         <f t="shared" ref="S75" si="391">SQRT(S74)</f>
-        <v>275.87791404958369</v>
+        <v>6.9442749961519404E-2</v>
       </c>
       <c r="T75">
         <f t="shared" ref="T75" si="392">SQRT(T74)</f>
-        <v>329.15589550242271</v>
+        <v>0.38502101389671289</v>
       </c>
       <c r="U75">
         <f t="shared" ref="U75" si="393">SQRT(U74)</f>
-        <v>415.71460749871437</v>
+        <v>1.6211008905503523</v>
       </c>
       <c r="V75">
         <f t="shared" ref="V75" si="394">SQRT(V74)</f>
-        <v>503.42466021320274</v>
+        <v>2.9398710416634204</v>
       </c>
       <c r="W75">
         <f t="shared" ref="W75" si="395">SQRT(W74)</f>
-        <v>601.20091367464374</v>
+        <v>2.8158971655674905</v>
       </c>
       <c r="X75">
         <f t="shared" ref="X75" si="396">SQRT(X74)</f>
-        <v>712.7607070238962</v>
+        <v>3.2612913044559653</v>
       </c>
       <c r="Y75">
         <f t="shared" ref="Y75" si="397">SQRT(Y74)</f>
-        <v>835.87597225709885</v>
+        <v>3.8205978036231656</v>
       </c>
       <c r="Z75">
         <f t="shared" ref="Z75" si="398">SQRT(Z74)</f>
-        <v>957.31690316274933</v>
+        <v>3.8285655327599102</v>
       </c>
       <c r="AA75">
         <f t="shared" ref="AA75" si="399">SQRT(AA74)</f>
-        <v>1105.9359607985962</v>
+        <v>4.0357900312254076</v>
       </c>
       <c r="AB75" s="43">
         <f t="shared" ref="AB75" si="400">SQRT(AB74)</f>
-        <v>1272.2153797411697</v>
+        <v>4.2733104068279637</v>
       </c>
       <c r="AC75" s="44">
         <f t="shared" ref="AC75" si="401">SQRT(AC74)</f>
-        <v>1468.7565168869758</v>
+        <v>4.2225604516065509</v>
       </c>
       <c r="AD75" s="44">
         <f t="shared" ref="AD75" si="402">SQRT(AD74)</f>
-        <v>1640.1122873192305</v>
+        <v>3.7626571773568749</v>
       </c>
       <c r="AE75" s="44">
         <f t="shared" ref="AE75" si="403">SQRT(AE74)</f>
-        <v>1787.7733808681669</v>
+        <v>3.4603454566825071</v>
       </c>
       <c r="AF75" s="45">
         <f t="shared" ref="AF75" si="404">SQRT(AF74)</f>
-        <v>2055.015210673017</v>
+        <v>5.6692517053852356</v>
       </c>
     </row>
     <row r="80" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18630,107 +18630,107 @@
       </c>
       <c r="F82">
         <f>G83-F83</f>
-        <v>2.0953072327983961</v>
+        <v>7.6496597020965333E-6</v>
       </c>
       <c r="G82">
         <f t="shared" ref="G82" si="405">H83-G83</f>
-        <v>3.0432763293987461</v>
+        <v>1.5436575774257447E-5</v>
       </c>
       <c r="H82">
         <f t="shared" ref="H82" si="406">I83-H83</f>
-        <v>4.3881534514993739</v>
+        <v>2.5418179139730535E-5</v>
       </c>
       <c r="I82">
         <f t="shared" ref="I82" si="407">J83-I83</f>
-        <v>6.1632393167336925</v>
+        <v>4.2924359738529504E-5</v>
       </c>
       <c r="J82">
         <f t="shared" ref="J82" si="408">K83-J83</f>
-        <v>8.8090656843884787</v>
+        <v>3.0839839792110805E-5</v>
       </c>
       <c r="K82">
         <f t="shared" ref="K82" si="409">L83-K83</f>
-        <v>10.918034162412962</v>
+        <v>3.4431721120782403E-4</v>
       </c>
       <c r="L82">
         <f t="shared" ref="L82" si="410">M83-L83</f>
-        <v>15.143232303746359</v>
+        <v>5.6161368826458322E-4</v>
       </c>
       <c r="M82">
         <f t="shared" ref="M82" si="411">N83-M83</f>
-        <v>19.627528157613796</v>
+        <v>9.9933578672467029E-4</v>
       </c>
       <c r="N82">
         <f t="shared" ref="N82" si="412">O83-N83</f>
-        <v>26.146538501287992</v>
+        <v>2.1867361890841267E-3</v>
       </c>
       <c r="O82">
         <f t="shared" ref="O82" si="413">P83-O83</f>
-        <v>32.411887037432166</v>
+        <v>6.6052415480606494E-3</v>
       </c>
       <c r="P82">
         <f t="shared" ref="P82" si="414">Q83-P83</f>
-        <v>39.779507222381568</v>
+        <v>1.2228669776961004E-2</v>
       </c>
       <c r="Q82">
         <f t="shared" ref="Q82" si="415">R83-Q83</f>
-        <v>50.36725827432889</v>
+        <v>1.9932453587810473E-2</v>
       </c>
       <c r="R82">
         <f t="shared" ref="R82" si="416">S83-R83</f>
-        <v>53.778822572547881</v>
+        <v>5.9560747663968037E-2</v>
       </c>
       <c r="S82">
         <f t="shared" ref="S82" si="417">T83-S83</f>
-        <v>53.714696395637532</v>
+        <v>0.13044746459297452</v>
       </c>
       <c r="T82">
         <f t="shared" ref="T82" si="418">U83-T83</f>
-        <v>87.991433495326532</v>
+        <v>0.22176705480527231</v>
       </c>
       <c r="U82">
         <f t="shared" ref="U82" si="419">V83-U83</f>
-        <v>89.604131459954772</v>
+        <v>0.6196875948408056</v>
       </c>
       <c r="V82">
         <f t="shared" ref="V82" si="420">W83-V83</f>
-        <v>98.444572139634658</v>
+        <v>0.84173045248877276</v>
       </c>
       <c r="W82">
         <f t="shared" ref="W82" si="421">X83-W83</f>
-        <v>112.70136490374171</v>
+        <v>0.7337021079867827</v>
       </c>
       <c r="X82">
         <f t="shared" ref="X82" si="422">Y83-X83</f>
-        <v>124.46144207286591</v>
+        <v>0.79033978119053039</v>
       </c>
       <c r="Y82">
         <f t="shared" ref="Y82" si="423">Z83-Y83</f>
-        <v>122.40011759047889</v>
+        <v>0.89403907654533299</v>
       </c>
       <c r="Z82">
         <f t="shared" ref="Z82" si="424">AA83-Z83</f>
-        <v>149.70231544791284</v>
+        <v>0.73111890520608735</v>
       </c>
       <c r="AA82">
         <f t="shared" ref="AA82" si="425">AB83-AA83</f>
-        <v>167.88959378834829</v>
+        <v>1.105892796013082</v>
       </c>
       <c r="AB82" s="43">
         <f t="shared" ref="AB82" si="426">AC83-AB83</f>
-        <v>198.34199542906731</v>
+        <v>1.4207862789519226</v>
       </c>
       <c r="AC82" s="44">
         <f t="shared" ref="AC82" si="427">AD83-AC83</f>
-        <v>173.12627321409991</v>
+        <v>1.6367219178401546</v>
       </c>
       <c r="AD82" s="44">
         <f t="shared" ref="AD82" si="428">AE83-AD83</f>
-        <v>150.68785981060228</v>
+        <v>2.5792286927565069</v>
       </c>
       <c r="AE82" s="44">
         <f t="shared" ref="AE82" si="429">AF83-AE83</f>
-        <v>273.24413957996967</v>
+        <v>2.674722724166628</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
@@ -18746,111 +18746,111 @@
       </c>
       <c r="F83">
         <f>$E$3+($C82/($C82+E5))*E4*(EXP(-EXP($A82-$B82*F81)))</f>
-        <v>3.4764468390269205</v>
+        <v>2.051659952729711E-3</v>
       </c>
       <c r="G83">
         <f>$E$3+($C82/($C82+F5))*F4*(EXP(-EXP($A82-$B82*G81)))</f>
-        <v>5.5717540718253167</v>
+        <v>2.0593096124318076E-3</v>
       </c>
       <c r="H83">
         <f>$E$3+($C82/($C82+G5))*G4*(EXP(-EXP($A82-$B82*H81)))</f>
-        <v>8.6150304012240628</v>
+        <v>2.074746188206065E-3</v>
       </c>
       <c r="I83">
         <f t="shared" ref="I83:AF83" si="430">$E$3+($C82/($C82+H5))*H4*(EXP(-EXP($A82-$B82*I81)))</f>
-        <v>13.003183852723437</v>
+        <v>2.1001643673457956E-3</v>
       </c>
       <c r="J83">
         <f t="shared" si="430"/>
-        <v>19.166423169457129</v>
+        <v>2.1430887270843251E-3</v>
       </c>
       <c r="K83">
         <f t="shared" si="430"/>
-        <v>27.975488853845608</v>
+        <v>2.1739285668764359E-3</v>
       </c>
       <c r="L83">
         <f t="shared" si="430"/>
-        <v>38.89352301625857</v>
+        <v>2.5182457780842599E-3</v>
       </c>
       <c r="M83">
         <f t="shared" si="430"/>
-        <v>54.036755320004929</v>
+        <v>3.0798594663488431E-3</v>
       </c>
       <c r="N83">
         <f t="shared" si="430"/>
-        <v>73.664283477618724</v>
+        <v>4.0791952530735134E-3</v>
       </c>
       <c r="O83">
         <f t="shared" si="430"/>
-        <v>99.810821978906716</v>
+        <v>6.2659314421576401E-3</v>
       </c>
       <c r="P83">
         <f t="shared" si="430"/>
-        <v>132.22270901633888</v>
+        <v>1.2871172990218289E-2</v>
       </c>
       <c r="Q83">
         <f t="shared" si="430"/>
-        <v>172.00221623872045</v>
+        <v>2.5099842767179293E-2</v>
       </c>
       <c r="R83">
         <f t="shared" si="430"/>
-        <v>222.36947451304934</v>
+        <v>4.5032296354989766E-2</v>
       </c>
       <c r="S83">
         <f t="shared" si="430"/>
-        <v>276.14829708559722</v>
+        <v>0.1045930440189578</v>
       </c>
       <c r="T83">
         <f t="shared" si="430"/>
-        <v>329.86299348123475</v>
+        <v>0.23504050861193232</v>
       </c>
       <c r="U83">
         <f t="shared" si="430"/>
-        <v>417.85442697656129</v>
+        <v>0.45680756341720463</v>
       </c>
       <c r="V83">
         <f t="shared" si="430"/>
-        <v>507.45855843651606</v>
+        <v>1.0764951582580102</v>
       </c>
       <c r="W83">
         <f t="shared" si="430"/>
-        <v>605.90313057615072</v>
+        <v>1.918225610746783</v>
       </c>
       <c r="X83">
         <f t="shared" si="430"/>
-        <v>718.60449547989242</v>
+        <v>2.6519277187335657</v>
       </c>
       <c r="Y83">
         <f t="shared" si="430"/>
-        <v>843.06593755275833</v>
+        <v>3.4422674999240961</v>
       </c>
       <c r="Z83">
         <f t="shared" si="430"/>
-        <v>965.46605514323721</v>
+        <v>4.3363065764694291</v>
       </c>
       <c r="AA83">
         <f t="shared" si="430"/>
-        <v>1115.1683705911501</v>
+        <v>5.0674254816755164</v>
       </c>
       <c r="AB83" s="43">
         <f t="shared" si="430"/>
-        <v>1283.0579643794983</v>
+        <v>6.1733182776885984</v>
       </c>
       <c r="AC83" s="44">
         <f t="shared" si="430"/>
-        <v>1481.3999598085657</v>
+        <v>7.594104556640521</v>
       </c>
       <c r="AD83" s="44">
         <f t="shared" si="430"/>
-        <v>1654.5262330226656</v>
+        <v>9.2308264744806756</v>
       </c>
       <c r="AE83" s="44">
         <f t="shared" si="430"/>
-        <v>1805.2140928332678</v>
+        <v>11.810055167237183</v>
       </c>
       <c r="AF83" s="45">
         <f t="shared" si="430"/>
-        <v>2078.4582324132375</v>
+        <v>14.484777891403811</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
@@ -18859,126 +18859,126 @@
       </c>
       <c r="B84" s="17">
         <f>AF83-$AF$3</f>
-        <v>2058.3272814132374</v>
+        <v>-5.646173108596189</v>
       </c>
       <c r="C84" s="28">
         <f>((AF83-AA83)-($AF$3-$AA$3))</f>
-        <v>952.26153682208746</v>
+        <v>-1.6109725902717038</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="5">
         <f>SUM(F84:AA84)</f>
-        <v>4436332.6455656188</v>
+        <v>75.53165597462845</v>
       </c>
       <c r="F84" s="3">
         <f>(F83-F$3)^2</f>
-        <v>12.067262394555412</v>
+        <v>3.5836990619577375E-7</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" ref="G84" si="431">(G83-G$3)^2</f>
-        <v>31.006491339644452</v>
+        <v>1.8157303445886779E-6</v>
       </c>
       <c r="H84" s="3">
         <f t="shared" ref="H84" si="432">(H83-H$3)^2</f>
-        <v>74.148320426256277</v>
+        <v>4.0552044145146037E-6</v>
       </c>
       <c r="I84" s="3">
         <f t="shared" ref="I84" si="433">(I83-I$3)^2</f>
-        <v>168.96454703034325</v>
+        <v>5.9894516988589565E-6</v>
       </c>
       <c r="J84" s="3">
         <f t="shared" ref="J84" si="434">(J83-J$3)^2</f>
-        <v>367.15158235340391</v>
+        <v>9.4873934671695084E-6</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" ref="K84" si="435">(K83-K$3)^2</f>
-        <v>782.28332856523184</v>
+        <v>1.5892751791396869E-5</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" ref="L84" si="436">(L83-L$3)^2</f>
-        <v>1512.1536266830972</v>
+        <v>2.1024097756673925E-5</v>
       </c>
       <c r="M84" s="3">
         <f t="shared" ref="M84" si="437">(M83-M$3)^2</f>
-        <v>2919.1315464658364</v>
+        <v>2.1972098756515856E-5</v>
       </c>
       <c r="N84" s="3">
         <f t="shared" ref="N84" si="438">(N83-N$3)^2</f>
-        <v>5425.1821022630238</v>
+        <v>1.9086315115271506E-5</v>
       </c>
       <c r="O84" s="3">
         <f t="shared" ref="O84" si="439">(O83-O$3)^2</f>
-        <v>9960.1041153969618</v>
+        <v>1.7933772914317197E-5</v>
       </c>
       <c r="P84" s="3">
         <f t="shared" ref="P84" si="440">(P83-P$3)^2</f>
-        <v>17479.696421004082</v>
+        <v>9.3146238624789322E-7</v>
       </c>
       <c r="Q84" s="3">
         <f t="shared" ref="Q84" si="441">(Q83-Q$3)^2</f>
-        <v>29578.570635246953</v>
+        <v>5.0407767318668139E-5</v>
       </c>
       <c r="R84" s="3">
         <f t="shared" ref="R84" si="442">(R83-R$3)^2</f>
-        <v>49429.505923350604</v>
+        <v>9.1948211844842058E-6</v>
       </c>
       <c r="S84" s="3">
         <f t="shared" ref="S84" si="443">(S83-S$3)^2</f>
-        <v>76161.812651889486</v>
+        <v>4.8173255385543278E-3</v>
       </c>
       <c r="T84" s="3">
         <f t="shared" ref="T84" si="444">(T83-T$3)^2</f>
-        <v>108400.94875648439</v>
+        <v>0.14819381000975976</v>
       </c>
       <c r="U84" s="3">
         <f t="shared" ref="U84" si="445">(U83-U$3)^2</f>
-        <v>172870.16944632487</v>
+        <v>2.6277494025194272</v>
       </c>
       <c r="V84" s="3">
         <f t="shared" ref="V84" si="446">(V83-V$3)^2</f>
-        <v>253454.07838000968</v>
+        <v>8.6426230170514646</v>
       </c>
       <c r="W84" s="3">
         <f t="shared" ref="W84" si="447">(W83-W$3)^2</f>
-        <v>361404.05423396459</v>
+        <v>7.9298469282767137</v>
       </c>
       <c r="X84" s="3">
         <f t="shared" ref="X84" si="448">(X83-X$3)^2</f>
-        <v>507928.4892472885</v>
+        <v>10.637697191032032</v>
       </c>
       <c r="Y84" s="3">
         <f t="shared" ref="Y84" si="449">(Y83-Y$3)^2</f>
-        <v>698566.27627848345</v>
+        <v>14.59925006429229</v>
       </c>
       <c r="Z84" s="3">
         <f t="shared" ref="Z84" si="450">(Z83-Z$3)^2</f>
-        <v>916425.41931067884</v>
+        <v>14.658456863584968</v>
       </c>
       <c r="AA84" s="3">
         <f t="shared" ref="AA84" si="451">(AA83-AA$3)^2</f>
-        <v>1223381.4313579749</v>
+        <v>16.282843223086186</v>
       </c>
       <c r="AB84" s="46">
         <f t="shared" ref="AB84" si="452">(AB83-AB$3)^2</f>
-        <v>1619544.4824962451</v>
+        <v>18.244829959372588</v>
       </c>
       <c r="AC84" s="47">
         <f t="shared" ref="AC84" si="453">(AC83-AC$3)^2</f>
-        <v>2159687.5783090438</v>
+        <v>17.794067067048658</v>
       </c>
       <c r="AD84" s="47">
         <f t="shared" ref="AD84" si="454">(AD83-AD$3)^2</f>
-        <v>2694655.9256432871</v>
+        <v>14.097693433044533</v>
       </c>
       <c r="AE84" s="47">
         <f t="shared" ref="AE84" si="455">(AE83-AE$3)^2</f>
-        <v>3203949.5767286257</v>
+        <v>11.875300802518639</v>
       </c>
       <c r="AF84" s="48">
         <f t="shared" ref="AF84" si="456">(AF83-AF$3)^2</f>
-        <v>4236711.1974100089</v>
+        <v>31.879270772234754</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -18987,126 +18987,126 @@
       </c>
       <c r="B85" s="20">
         <f>(B84/$AF$3)*100</f>
-        <v>10224.689739760617</v>
+        <v>-28.047224935355459</v>
       </c>
       <c r="C85" s="29">
         <f>((C84)/($AF$3-$AA$3))*100</f>
-        <v>8634.6887385172959</v>
+        <v>-14.607590819745555</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="5">
         <f>SUM(F85:AA85)</f>
-        <v>6608.1419706780989</v>
+        <v>22.819961314902553</v>
       </c>
       <c r="F85">
         <f>SQRT(F84)</f>
-        <v>3.4737965390269205</v>
+        <v>5.9864004727028892E-4</v>
       </c>
       <c r="G85">
         <f t="shared" ref="G85" si="457">SQRT(G84)</f>
-        <v>5.5683472718253171</v>
+        <v>1.3474903875681926E-3</v>
       </c>
       <c r="H85">
         <f t="shared" ref="H85" si="458">SQRT(H84)</f>
-        <v>8.6109419012240629</v>
+        <v>2.0137538117939351E-3</v>
       </c>
       <c r="I85">
         <f t="shared" ref="I85" si="459">SQRT(I84)</f>
-        <v>12.998636352723437</v>
+        <v>2.4473356326542048E-3</v>
       </c>
       <c r="J85">
         <f t="shared" ref="J85" si="460">SQRT(J84)</f>
-        <v>19.161199919457129</v>
+        <v>3.0801612729156745E-3</v>
       </c>
       <c r="K85">
         <f t="shared" ref="K85" si="461">SQRT(K84)</f>
-        <v>27.969328353845608</v>
+        <v>3.9865714331235643E-3</v>
       </c>
       <c r="L85">
         <f t="shared" ref="L85" si="462">SQRT(L84)</f>
-        <v>38.886419566258567</v>
+        <v>4.58520422191574E-3</v>
       </c>
       <c r="M85">
         <f t="shared" ref="M85" si="463">SQRT(M84)</f>
-        <v>54.028988020004931</v>
+        <v>4.6874405336511582E-3</v>
       </c>
       <c r="N85">
         <f t="shared" ref="N85" si="464">SQRT(N84)</f>
-        <v>73.655835493618724</v>
+        <v>4.368788746926487E-3</v>
       </c>
       <c r="O85">
         <f t="shared" ref="O85" si="465">SQRT(O84)</f>
-        <v>99.800321218906717</v>
+        <v>4.2348285578423595E-3</v>
       </c>
       <c r="P85">
         <f t="shared" ref="P85" si="466">SQRT(P84)</f>
-        <v>132.21080296633889</v>
+        <v>9.6512299021828986E-4</v>
       </c>
       <c r="Q85">
         <f t="shared" ref="Q85" si="467">SQRT(Q84)</f>
-        <v>171.98421623872045</v>
+        <v>7.0998427671792944E-3</v>
       </c>
       <c r="R85">
         <f t="shared" ref="R85" si="468">SQRT(R84)</f>
-        <v>222.32747451304934</v>
+        <v>3.0322963549897636E-3</v>
       </c>
       <c r="S85">
         <f t="shared" ref="S85" si="469">SQRT(S84)</f>
-        <v>275.97429708559724</v>
+        <v>6.9406955981042184E-2</v>
       </c>
       <c r="T85">
         <f t="shared" ref="T85" si="470">SQRT(T84)</f>
-        <v>329.24299348123475</v>
+        <v>0.38495949138806768</v>
       </c>
       <c r="U85">
         <f t="shared" ref="U85" si="471">SQRT(U84)</f>
-        <v>415.77658597656131</v>
+        <v>1.6210334365827952</v>
       </c>
       <c r="V85">
         <f t="shared" ref="V85" si="472">SQRT(V84)</f>
-        <v>503.44222943651607</v>
+        <v>2.9398338417419896</v>
       </c>
       <c r="W85">
         <f t="shared" ref="W85" si="473">SQRT(W84)</f>
-        <v>601.16890657615068</v>
+        <v>2.8159983892532172</v>
       </c>
       <c r="X85">
         <f t="shared" ref="X85" si="474">SQRT(X84)</f>
-        <v>712.69101947989247</v>
+        <v>3.2615482812664345</v>
       </c>
       <c r="Y85">
         <f t="shared" ref="Y85" si="475">SQRT(Y84)</f>
-        <v>835.80277355275837</v>
+        <v>3.8208965000759036</v>
       </c>
       <c r="Z85">
         <f t="shared" ref="Z85" si="476">SQRT(Z84)</f>
-        <v>957.30111214323722</v>
+        <v>3.8286364235305719</v>
       </c>
       <c r="AA85">
         <f t="shared" ref="AA85" si="477">SQRT(AA84)</f>
-        <v>1106.06574459115</v>
+        <v>4.0352005183244843</v>
       </c>
       <c r="AB85" s="43">
         <f t="shared" ref="AB85" si="478">SQRT(AB84)</f>
-        <v>1272.6132493794983</v>
+        <v>4.271396722311402</v>
       </c>
       <c r="AC85" s="44">
         <f t="shared" ref="AC85" si="479">SQRT(AC84)</f>
-        <v>1469.5875538085656</v>
+        <v>4.2183014433594783</v>
       </c>
       <c r="AD85" s="44">
         <f t="shared" ref="AD85" si="480">SQRT(AD84)</f>
-        <v>1641.5407170226656</v>
+        <v>3.7546895255193249</v>
       </c>
       <c r="AE85" s="44">
         <f t="shared" ref="AE85" si="481">SQRT(AE84)</f>
-        <v>1789.9579818332679</v>
+        <v>3.4460558327628181</v>
       </c>
       <c r="AF85" s="45">
         <f t="shared" ref="AF85" si="482">SQRT(AF84)</f>
-        <v>2058.3272814132374</v>
+        <v>5.646173108596189</v>
       </c>
     </row>
   </sheetData>
@@ -19137,115 +19137,115 @@
     <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" s="61">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="B2" s="61">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C2" s="61">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="D2" s="61">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="E2" s="61">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="F2" s="61">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="G2" s="61">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="H2" s="61">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="I2" s="61">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="J2" s="61">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="K2" s="61">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="L2" s="61">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="M2" s="61">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="N2" s="61">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="O2" s="61">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="P2" s="61">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="Q2" s="61">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="R2" s="61">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="S2" s="61">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="T2" s="61">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="U2" s="61">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="V2" s="61">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="W2" s="61">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="X2" s="61">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="Y2" s="61">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="Z2" s="61">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="AA2" s="61">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="AB2" s="61">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="AC2" s="60">
         <f t="shared" ref="AC2" si="0">E8</f>
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B8">
         <f>'Models check 1995-2017-2022'!$E$4</f>
-        <v>13381.884159468407</v>
+        <v>4.4908999999999998E-2</v>
       </c>
       <c r="C8">
         <f>A8*$A$5+$B$5</f>
@@ -19682,7 +19682,7 @@
       </c>
       <c r="B9">
         <f>'Models check 1995-2017-2022'!$F$4</f>
-        <v>13797.191627218766</v>
+        <v>4.7833411111111113E-2</v>
       </c>
       <c r="C9">
         <f t="shared" ref="C9:C35" si="1">A9*$A$5+$B$5</f>
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B10">
         <f>'Models check 1995-2017-2022'!$G$4</f>
-        <v>14128.649634452517</v>
+        <v>5.6997244444444449E-2</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
@@ -19742,7 +19742,7 @@
       </c>
       <c r="B11">
         <f>'Models check 1995-2017-2022'!$H$4</f>
-        <v>14511.019560935903</v>
+        <v>6.7151500000000003E-2</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="B12">
         <f>'Models check 1995-2017-2022'!$I$4</f>
-        <v>14925.882475218497</v>
+        <v>8.0289055555555572E-2</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -19802,7 +19802,7 @@
       </c>
       <c r="B13">
         <f>'Models check 1995-2017-2022'!$J$4</f>
-        <v>15563.882921480617</v>
+        <v>7.4515250000000005E-2</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -19826,7 +19826,7 @@
       </c>
       <c r="B14">
         <f>'Models check 1995-2017-2022'!$K$4</f>
-        <v>15799.596068168668</v>
+        <v>0.1942865</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -19853,7 +19853,7 @@
       </c>
       <c r="B15">
         <f>'Models check 1995-2017-2022'!$L$4</f>
-        <v>16357.739666156878</v>
+        <v>0.31479300555555562</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="B16">
         <f>'Models check 1995-2017-2022'!$M$4</f>
-        <v>16935.121568843122</v>
+        <v>0.4688157444444444</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
@@ -19935,7 +19935,7 @@
       </c>
       <c r="B17">
         <f>'Models check 1995-2017-2022'!$N$4</f>
-        <v>17736.914638193048</v>
+        <v>0.75098587288888896</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
@@ -19973,7 +19973,7 @@
       </c>
       <c r="B18">
         <f>'Models check 1995-2017-2022'!$O$4</f>
-        <v>18464.078545158507</v>
+        <v>1.5125292461111111</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B19">
         <f>'Models check 1995-2017-2022'!$P$4</f>
-        <v>19166.692215718551</v>
+        <v>2.5696538138888889</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
@@ -20033,7 +20033,7 @@
       </c>
       <c r="B20">
         <f>'Models check 1995-2017-2022'!$Q$4</f>
-        <v>20058.735773087752</v>
+        <v>3.8781358194444442</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="B21">
         <f>'Models check 1995-2017-2022'!$R$4</f>
-        <v>20435.969784417954</v>
+        <v>7.5893511322222222</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="B22">
         <f>'Models check 1995-2017-2022'!$S$4</f>
-        <v>20278.499739432627</v>
+        <v>14.32391649666268</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="B23">
         <f>'Models check 1995-2017-2022'!$T$4</f>
-        <v>21589.613748314347</v>
+        <v>23.49694855276784</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
@@ -20208,7 +20208,7 @@
       </c>
       <c r="B24">
         <f>'Models check 1995-2017-2022'!$U$4</f>
-        <v>22277.930768954324</v>
+        <v>47.169829848214562</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
@@ -20232,7 +20232,7 @@
       </c>
       <c r="B25">
         <f>'Models check 1995-2017-2022'!$V$4</f>
-        <v>22832.897362521064</v>
+        <v>72.209920163895447</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="B26">
         <f>'Models check 1995-2017-2022'!$W$4</f>
-        <v>23467.918512807806</v>
+        <v>86.539293843353136</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
@@ -20280,7 +20280,7 @@
       </c>
       <c r="B27">
         <f>'Models check 1995-2017-2022'!$X$4</f>
-        <v>24074.119579745573</v>
+        <v>98.23745086832993</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
@@ -20304,7 +20304,7 @@
       </c>
       <c r="B28">
         <f>'Models check 1995-2017-2022'!$Y$4</f>
-        <v>24308.615009446032</v>
+        <v>109.12889129282949</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
@@ -20328,7 +20328,7 @@
       </c>
       <c r="B29">
         <f>'Models check 1995-2017-2022'!$Z$4</f>
-        <v>24951.573195105961</v>
+        <v>113.33675806052599</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
@@ -20352,7 +20352,7 @@
       </c>
       <c r="B30">
         <f>'Models check 1995-2017-2022'!$AA$4</f>
-        <v>25699.435183038651</v>
+        <v>123.6098622674243</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
@@ -20372,7 +20372,7 @@
       </c>
       <c r="B31">
         <f>'Models check 1995-2017-2022'!$AB$4</f>
-        <v>26745.772154130489</v>
+        <v>137.07028077749499</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B32">
         <f>'Models check 1995-2017-2022'!$AC$4</f>
-        <v>27099.499905623976</v>
+        <v>151.15856223130299</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="B33">
         <f>'Models check 1995-2017-2022'!$AD$4</f>
-        <v>26986.49569151612</v>
+        <v>176.52050900938389</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
@@ -20432,7 +20432,7 @@
       </c>
       <c r="B34">
         <f>'Models check 1995-2017-2022'!$AE$4</f>
-        <v>28520.172901436086</v>
+        <v>198.72932143421099</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
@@ -20452,7 +20452,7 @@
       </c>
       <c r="B35">
         <f>'Models check 1995-2017-2022'!$AF$4</f>
-        <v>29165.129834866351</v>
+        <v>246.43538769986671</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
